--- a/PCAstatic/PCAstatic_predicted_variables_matrix_7.xlsx
+++ b/PCAstatic/PCAstatic_predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:AU67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>-0.282577829450753</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.2706171322965467</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.259794954021318</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.2501510993493297</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.2417235366368397</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.2345128495335068</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.2284944408554553</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.2236234414575058</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.21983896021335</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.2170679447960265</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.2152286189932451</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.2142335124803775</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.2139920994634439</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.2144130646409697</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.2154062168193324</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.2168840722471341</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.2187631313064813</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.2209648735259586</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.2234164968651888</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.2260466210161497</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.2287985094344794</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.2316186956128894</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.2344598457806878</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.2372675986747149</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.2400033046213844</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.2426546482625206</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.2451991733507776</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.2476194810060741</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.2499031094875089</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.2520419710792356</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.2540318045465582</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.2558716282535984</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.2575327855613556</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.2590507220995421</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.2604305009212233</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.2616795042003668</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.2628061121005754</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.2638193957514561</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.2647288261407494</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.265544020715754</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.266274530641138</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.266929665923177</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.2675183555087312</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>0.226004116470728</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.2350710642327596</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2435636964133344</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2512447496930721</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2579912722380309</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2637311167137371</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2684367441077417</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2721163186795816</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.274806104838257</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2765638339575534</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.2774629598016315</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.2775877237656625</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.2770289564813561</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.2758805487413816</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.2742365298997558</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.2721886958918299</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.2698247319830772</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.2672267776257853</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.2644703827229414</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.2615536177818252</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.2586208263942293</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.255724665571966</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.2529094384764838</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.2501720702254496</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.247557901032055</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.2451327619834481</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.2429105534656486</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.240899028316871</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.239100842717024</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.2375144153363112</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.23613462613221</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.2349534678652809</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.2339674936620421</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.2331602800008287</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.2325178745956329</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.2320256396409084</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.2316686171020171</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.2314319055964969</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.231300935560106</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.2312616928094324</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.2313008942786919</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.2314061202514111</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.2315659075924563</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>0.1670477520162096</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1786369653169675</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1896477840078839</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1998968383639014</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2092555287643829</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2176383827870553</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2249980515169079</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.231319246579428</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2366132142199651</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.240912720265155</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.244267522801838</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2467403176219918</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.24840314002658</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.2493342055543803</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.2496151707932668</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.2493287936004188</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.2485569699525202</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.2473791224959538</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.2458709139075407</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.2440837665476999</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.2421069407504803</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.2399995481796122</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.2378152665335805</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.2355963852369236</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.233390862339574</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.2312377701908317</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.2291648174633488</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.2271945148037431</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.225344004706544</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.2236255401999841</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.2220470324926044</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.2206126002717559</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.2193420216663211</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.2182154543059865</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.2172282640654125</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.2163742866699861</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.2156459750391894</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.2150347810815185</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.2145314912058941</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.2141265187690659</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.2138101546871944</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.2135727780256887</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.2134050290230304</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>-0.05947712693213528</v>
       </c>
+      <c r="F5" t="n">
+        <v>-0.05265670316006543</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.04680123192638561</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.04193918585528692</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.03805501695901953</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.03511384222175608</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.0330635961873839</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.03183951036447106</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.03136793777978758</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.03156963626740386</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.03236255604130931</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.03366417418862443</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.03539341747388065</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.03747221248914812</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.03982670020310513</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.04238815034079846</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.04509360964629145</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.04788631679271711</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.05071591537281921</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.05354908946932037</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.05633382406501653</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.05903704748917971</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.06163319006741261</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.0641002807074252</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.06641737553463509</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.06857615915201604</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.07057024290538796</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.07239805892920287</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.07406129377141937</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.07556420351340767</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.07691310592727038</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.07811592695684151</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.07915944621298296</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.08007551178243698</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.08087481411259667</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.0815682563840102</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.08216672553238119</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.08268085550770594</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.08312086519496364</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.08349643311653737</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.08381660414341488</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.08408972464718775</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.0843234025942774</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1164,132 @@
       <c r="E6" t="n">
         <v>0.1721129499449955</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.1836479108003935</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1937138155626005</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2022628077518629</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.20934196333762</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2150186590596608</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2193815082224755</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.2225342928557507</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.2245908837500604</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2256709265028978</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.2258962024402205</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2253876023695593</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.2242626539771533</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.2226335485674587</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.2206056166237924</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.2182762044654674</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.2157339063704462</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.2130581082434426</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.2103188005297022</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.2075179431407482</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.2047781976999792</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.2021415214492979</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.1996417759492273</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.1972721530964407</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.1950653202806017</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.1930700227999241</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.1912910324279437</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.1897282280402011</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.1883772994398608</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.1872305976922296</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.1862778477309476</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.185506783702763</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.184906795301242</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.1844625256799691</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.1841577662086074</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.1839768723663662</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.1839044428744525</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.1839256353567338</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.1840263680561749</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.1841934704315035</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.1844147897705026</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.1846792589792728</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.1849769307852374</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1307,132 @@
       <c r="E7" t="n">
         <v>-0.432177949103792</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.42287938645745</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.4140868884644265</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.4059424479796916</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.3985704536265995</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.3920538128031815</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.3864405840231506</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.3817494841424036</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.3779748145727895</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.3750909727089785</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.3730565313150994</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.3718178946171652</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.3713125442093916</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.3714718908930467</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.3722237509054004</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.3734944669190152</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.375210695831016</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.3773008867349072</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.3796964735416815</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.3823119464106316</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.3851109095709797</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.3880363831945861</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.3910377135128211</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.3940444036182535</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.3970162572346111</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.399948810108441</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.4028124506811184</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.4055836501995772</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.4082440761538959</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.4107800307378357</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.4131819734158929</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.4154440404237625</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.4175252068377343</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.4194647591449028</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.42126464432776</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.4229291276472496</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.4244640089226985</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.4258762466699427</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.4271736342196493</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.4283645124786916</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.4294575201605092</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.4304613801739227</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.4313847204445138</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1450,132 @@
       <c r="E8" t="n">
         <v>-0.2341850292928498</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.2222267849674894</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.2107181979815018</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.1997855599316682</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.1895436068858369</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.1800806560553812</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.1714577254747838</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.1637114049501238</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.1568568444613195</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.1508906747955704</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.1457938356169222</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.1415342718368099</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.138069468749759</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.1353488035414878</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.1333156970199788</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.1319095550707169</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.1310674944832677</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.1307258524478944</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.1308214831475414</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.1312716088652463</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.1320451197782554</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.1330842510877322</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.1343353049963376</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.1357292535605383</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.1372250117657878</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.1388057214917771</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.1404338818068543</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.1420771478476894</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.1437081239580267</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.1453040905822015</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.1468466627687917</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.1483214256997064</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.1496980475359238</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.1509887286945607</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.1521888928762616</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.1532959765273479</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.1543095739638731</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.1552310623783265</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.1560632659343746</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.1568101503549457</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.1574765470296264</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.1580679073086232</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.1585900867872895</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1593,132 @@
       <c r="E9" t="n">
         <v>-0.3855168623878263</v>
       </c>
+      <c r="F9" t="n">
+        <v>-0.3719348811228694</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.3584157351465975</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.3454177647616515</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.3332704051246646</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.3222143201050545</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.3124118745027413</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.3039596674126053</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.2968996351393512</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.2912290141477547</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.2869092213067214</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.2838737168729576</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.28203491644991</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.2812902159469992</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.2815271912347619</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.2826280323378176</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.2844732707960043</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.2869448581264573</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.289928652874454</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.2933743626124371</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.2971135886013357</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.3010527399173674</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.3051077936043166</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.3092321747933318</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.3133467798190854</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.3173674057127863</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.3212494260356513</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.3249576522637956</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.3284654487352723</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.3317538231805212</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.334810596619816</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.3376295713053006</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-0.3401871889802952</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.3425071135356185</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0.3445968723123767</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.3464668666044617</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.3481297124378308</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-0.3495996020379152</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-0.3508917722966668</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0.352022039312177</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>-0.3530063981755164</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-0.3538606854887842</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0.3546003011739673</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +1736,132 @@
       <c r="E10" t="n">
         <v>0.3837410986291587</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.3938583903890689</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.402500952162609</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.4096977530871896</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.4155244508191078</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.420073764784415</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.42345013112429</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.4257655057206651</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.4271358036999908</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.4276778816222637</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.4275070172009406</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.4267348397971163</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.4254676698972246</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.4238052293285691</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.4218396862537561</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.4196550003320606</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.4173265342129448</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.4149208980886225</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.4124959946648142</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.4100650889299998</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.4077139701467689</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.4054765651482498</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.4033787585758745</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.4014224475146267</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.3996307152666454</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.3980308142181717</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.3966249118586218</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.3954106862849325</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.3943824903210955</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.3935320657886789</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.3928491454088453</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.3923219923353593</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.3919473269325719</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.3917033717010509</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.3915763669710763</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.3915525210746893</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.3916184441245179</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.3917613521974727</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.391969219619148</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.3922308895788063</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.392536147860128</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.392875764593154</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.3932415086841393</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +1879,132 @@
       <c r="E11" t="n">
         <v>-0.2217081624036141</v>
       </c>
+      <c r="F11" t="n">
+        <v>-0.2140582986314229</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.2070860915655597</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.2008498766286855</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.1953871893449023</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.1907177673387076</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.1868409074494233</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.1837392191096611</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.181381790042827</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.1797270660786403</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.1787254494472886</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.1783216161874435</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.1784565590771469</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.1790693650851522</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0.18009873864321</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.181484284063314</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.1831675621669396</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.18509293762224</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-0.1872082345619872</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.1894404682489092</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-0.1917718922478616</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.1941629005933227</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.1965776155330916</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.1989577751280311</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-0.2012759240290657</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.20354032530188</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>-0.2057321949407016</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.2078365192205654</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.2098421222446693</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0.2117411741760685</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0.2135287918211702</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-0.2152026557401862</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.2167284603537503</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.2181425841350425</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.2194484334734444</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.2206503383165429</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.2217536370799049</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-0.2227643570002767</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-0.2236889845677719</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.22453426555464</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.2253070337826111</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-0.2260140673096404</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-0.2266619702794256</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -636,6 +2022,132 @@
       <c r="E12" t="n">
         <v>-0.04982971075570983</v>
       </c>
+      <c r="F12" t="n">
+        <v>-0.0357532322403389</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.02427470348430623</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.01536899826653994</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.008888399435208486</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.004654302478304027</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.002463227957703665</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.002096571393171084</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.003328504368296181</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.005932514781929708</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.009686727106757019</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.01437813773297453</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.01980589073079526</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.02578370850919124</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.03214158265230305</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.03872682244613201</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-0.04540455189708206</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.05205773996718419</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-0.05858684293789829</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.06498471642292028</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-0.07108840775979294</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.07684636820948951</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.0822217451543315</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.08722536660848307</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0.09182104943709624</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-0.09596507685593617</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-0.09966517814752887</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-0.1029367014341664</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.1058005009418842</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-0.1082814465955496</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.1104072742892337</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.1122075823914754</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.1136893180949478</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-0.1149044300750418</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-0.1158842485219341</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-0.1166590863874572</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-0.1172578217814243</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-0.1177075205764929</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-0.1180332155901247</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-0.1182577639709866</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-0.1184017724246587</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-0.1184835802670368</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-0.1185192908466942</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -653,6 +2165,132 @@
       <c r="E13" t="n">
         <v>-0.01150256043236545</v>
       </c>
+      <c r="F13" t="n">
+        <v>-0.01138886949680513</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.01143567089305777</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.01170051481394896</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.01221403568101358</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.01299066899136272</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.01403078850032531</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.0153238126522552</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.01685095820508622</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.01858757910917038</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0.02050514304653482</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.02257288248170989</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.02475915467389286</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.02703254248701056</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.02936272547694498</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.0317211486614463</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-0.03408151451846336</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-0.03642012203538274</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-0.03871607497635678</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-0.04094667131623432</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-0.04309820547042911</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-0.04515843081660632</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-0.04711821203263426</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-0.04895930680174268</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-0.05067260587461152</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-0.05226800916463855</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-0.05374590916417257</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-0.05510847337813975</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-0.05635919344759315</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-0.05750263968777584</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>-0.05854422259939536</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-0.05948997666029678</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>-0.06032138817697519</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-0.06106979996590476</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-0.06174244463395594</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-0.06234625685929324</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>-0.06288800412894686</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>-0.0633741935053868</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>-0.06381100065646238</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>-0.06420421756123501</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>-0.06455921570926773</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>-0.06488092310674802</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>-0.06517381332974069</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -670,6 +2308,132 @@
       <c r="E14" t="n">
         <v>0.1192454155676236</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.1454717229744528</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1670949665985417</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1840761160177906</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1966502093974765</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.205126308129828</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2098659449303894</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.2112639358741825</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.209732341022715</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.2056872526221725</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.1995380727266435</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.1916789864119384</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.1824823654203054</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.1722938628889753</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.1614289818159881</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.1501709183287049</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.1387694964065709</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.1274410243916965</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.1163689162478454</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.105477597825947</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.09517085811609358</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.08553612901139304</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.0766367311684841</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.06838086961904906</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.06084506043973097</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.05417984307900346</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.04836014267144501</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.04335023143680774</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.03910517496661913</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.03557307120377171</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.03269717169333267</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.03041776519440444</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.02867511409905834</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.02741489690909064</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.02657446853017508</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.02609420964116909</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.02591786575126228</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.02599307373428844</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.02627173029451282</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.02671021391839126</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.02726948012207099</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.02791504911946258</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.02861690423210788</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -687,6 +2451,132 @@
       <c r="E15" t="n">
         <v>0.05727129747757675</v>
       </c>
+      <c r="F15" t="n">
+        <v>0.08366645480000039</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1043712126494306</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1194457261666892</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1292632260971218</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.1342741503234924</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1349781140043824</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.1319017376151769</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.1255803478426444</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.1165431509308585</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.1053014493147843</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.09233951935272373</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.07810780723261852</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.06301813452112268</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.0474406344303623</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.03170216508048534</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.01608596777826045</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.0008323576954276102</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-0.01385974771842644</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-0.02809511502917193</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-0.0414177995302429</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-0.05374678659336479</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-0.06502967152025885</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-0.07539106009011397</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-0.08475872789332514</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>-0.09298016456954644</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>-0.1001051271993901</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>-0.1061943270059252</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-0.1113175851634948</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-0.1155511791185152</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>-0.1189753505961043</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>-0.1216721222134552</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-0.1237130708515178</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>-0.1251796503954096</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-0.1261525849090901</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-0.1267078848247315</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>-0.126916312550344</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>-0.1268429147854253</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>-0.1265467219360066</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>-0.1260806164488834</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>-0.1254913454654822</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>-0.1248196535355773</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>-0.1241005125703285</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -704,6 +2594,132 @@
       <c r="E16" t="n">
         <v>0.447159984754485</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.4857762311339172</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5171290040239914</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5412245887891466</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.558494786827078</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5694763393345073</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.574776131177933</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.5750425263040718</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.5709415053836773</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.5631371778213881</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.5522761370171438</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.5389751879029936</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.5238120245991053</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.5073184788850105</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.4899759965384127</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.4722130289485385</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.4544040530732885</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.4368699552974842</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.4198795354358487</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.4032819958845069</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.3877054669183597</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.3732712876776991</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.3600613772739842</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.3479029014953633</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.3369003332725917</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.3272905169385522</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.3190228028836403</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.3120297756827032</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.3062310532585035</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.3015368629735503</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.2978512954575949</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.2950751606125729</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.2930973619507597</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.2918427435355265</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.2912112443466609</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.2911080351815442</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.2914443656702969</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.2921382669045378</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.2931150158187893</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.2943073764695365</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.2956556511429502</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.2971075720708455</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.2986180627529145</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -721,6 +2737,132 @@
       <c r="E17" t="n">
         <v>0.6504308720346199</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.66760588816294</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.6795606142101969</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.6864510604091928</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6887258452268075</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.6868933780830246</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.6814889360708944</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.6730556575011635</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.6621289384777382</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.6492241639853839</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.6348273332969447</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.6193881757594661</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.6033154020853101</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.5869737758690585</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.570682723805771</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.5547162316525377</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.539303797514523</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.5246322357577312</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.5108481447839295</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.4977786857884819</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.4858509251318755</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.4751034433620069</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.4655461630496336</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.4569978257748222</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.4494957823075375</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.4431830545527513</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.4379834747046731</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.4338120164740821</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.430578497847485</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.4281900149398585</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.4265531403995123</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.4255757939515978</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.425158836857093</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.4252364271251362</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.4257257036934904</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.4265497164862387</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.4276384214505782</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.4289288078966576</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.4303649349236677</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.431897821707867</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.433485218316744</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.4350912817479195</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.4366861795788491</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -738,6 +2880,132 @@
       <c r="E18" t="n">
         <v>0.01586922323576725</v>
       </c>
+      <c r="F18" t="n">
+        <v>0.006915217051031722</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.001530634606547038</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.009749645885986799</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.01787851859603123</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.02599597849552081</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.03413790162083224</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.04230800282857762</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.05048680081614459</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.058638986023259</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.06671940186318695</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.07467783030652271</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.08246275129455316</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.09002422611904083</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.09731603736821055</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.1042972024917284</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.1109329643727164</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-0.1171953502643039</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-0.123063379762521</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-0.1286179776632629</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-0.1337283830155126</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-0.1383971579368095</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-0.1426322204818472</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-0.1464977131830452</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-0.149980843625559</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>-0.1530417882256848</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>-0.1557103861748654</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>-0.1580174983522988</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-0.1599945300135517</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>-0.161672934481919</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>-0.1630837228186535</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>-0.1642570385749536</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-0.1652047297854581</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>-0.1659673510836654</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>-0.1665719845845691</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>-0.1670436085246831</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>-0.1674049493628467</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>-0.1676764855702669</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>-0.1678764686081941</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>-0.1680209790431118</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>-0.1681240118090384</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>-0.1681975847036755</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>-0.1682518646111047</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -755,6 +3023,132 @@
       <c r="E19" t="n">
         <v>0.4210669388371807</v>
       </c>
+      <c r="F19" t="n">
+        <v>0.4291016909939003</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.434771582887387</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.4380879126549793</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.4392140543611955</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.4383485303973165</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.4357137571095444</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.4315454326640946</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.4260836754783609</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.4195658858279656</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.4122210966565256</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.4042656222031488</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.3958998336075469</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.387305908681917</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.3786464182384841</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.3700636240824805</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.3616793746486114</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.3535954938993756</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.3458945680393939</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.3385339437508197</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.3316992185360685</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.3254201136591623</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.3197116721768025</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.3145220735721468</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.3098763508289303</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.3058218920663186</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.3023288732930237</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.2993619486083063</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.2968821472208276</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.2948481635428934</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.2932175074457756</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.2919474912346466</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.2910169674026047</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.2903685747697076</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.2899616447560407</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.2897584172007008</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.2897239950028658</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.2898265290344545</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.290037313895797</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.2903308040281723</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.290684565161791</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.2910791727526052</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.2914980682898979</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -772,6 +3166,132 @@
       <c r="E20" t="n">
         <v>0.3863554922935359</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.4207209750865982</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.447795716325625</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.4676821963888308</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.4808794453809216</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.4879790457547794</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.4896294096609605</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.4865085544086551</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.4793017398846112</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.4686833936789905</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.4553027989884496</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.439773067841377</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.4226629731981084</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.4044912574098809</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.3857230718837918</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.3667682342675208</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.3479810163526766</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.3296611996712371</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.3120561577258776</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.2950118171017123</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.2791185841985933</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.2644760482579663</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.2511470485823796</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.2389549629254111</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.2279881060763648</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.2184541560572703</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.2102885333263581</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.2034125741531995</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.1977364157912778</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.1931624124121373</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.1895882652504963</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.1869097549780567</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.1850205402479729</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.1838334570603467</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.183246986940423</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.1831654573184115</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.1835000013727627</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.1841691209575589</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.1850990353791486</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.186223819422516</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.1874853614375027</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.1888331724471803</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.1902240751915876</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -789,6 +3309,132 @@
       <c r="E21" t="n">
         <v>0.6065002570853273</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.6376251828539108</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.6615448733183693</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.6787246058573904</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6898697999648844</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.6956952871846753</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.6969111009840591</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.6942080890881136</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.6882466732385575</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.6796482524948867</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.6689889034305121</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.6567950681772708</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.6435409542104584</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.6296473987153633</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.6154819740712352</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.6013601305140271</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.5875471886941245</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.5742610098392675</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.5616751855125806</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.5496944076621324</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.538698012322451</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.5287453959813155</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.5198647131144697</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.5119258477225137</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.5049654689501489</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.4990979547370901</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.4942626284886358</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.4903873458061053</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.4873928725889326</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.4851958269922403</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.4837110610944088</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.4828536645268749</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.48253379398637</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.482685608103581</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.4832311850659318</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.4840980884921549</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.4852199126363603</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.4865366341692568</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.487994734160115</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.4895471645852875</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.4911531879278001</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.4927781150773519</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.4943929644452347</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -806,6 +3452,132 @@
       <c r="E22" t="n">
         <v>0.4331984678260907</v>
       </c>
+      <c r="F22" t="n">
+        <v>0.4523368809319178</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.466389847369033</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.475496643230321</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.4800845104497526</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.4806289986826954</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.4776324250379688</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.4716058074357474</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.4630543014176802</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.4524656907866315</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.4403015266018572</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.426990556067224</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.41292412234988</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.3984532510743113</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.3838871687938833</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.3694930237761507</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.3554966009704401</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.3420838421321908</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.3294029996819016</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.3173099964677759</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.3062073159173292</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.2961397205353439</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.2871267539786845</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.2790130937676296</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.2718411809091242</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.2657467101904136</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.2606656081788379</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.2565256225404684</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.2532487084528593</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.2507534272201593</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.2489570572748765</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.2477773938452617</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.2471260595478576</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.2469430241872416</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.2471524336654188</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.2476840083316983</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.2484733770717466</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.2494623354992998</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.2505989394129829</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.2518374583594925</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.2531382134914892</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.2544673223285316</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.2557963712231882</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -823,6 +3595,132 @@
       <c r="E23" t="n">
         <v>-0.01277751446886463</v>
       </c>
+      <c r="F23" t="n">
+        <v>0.00318576397060194</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.01461706847993419</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.02171972986843282</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.02491135163085315</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.02463522295202966</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.02134735377013969</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.01550283176494555</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.007544947938418783</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.002103275490723588</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.01304548684720061</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.0249166175735076</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.03738595840565578</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-0.05015892570138542</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-0.06297772178541158</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-0.07562107359717114</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-0.08790321672350901</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-0.0996722763239893</v>
+      </c>
+      <c r="W23" t="n">
+        <v>-0.1108081818873346</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-0.1213987784927797</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-0.1311524493309613</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>-0.1400356337474916</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-0.1480348167915851</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>-0.155254805554909</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>-0.1616666968350488</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>-0.1671889155764129</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>-0.1718754671970917</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>-0.1757864780543566</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-0.1789866350664723</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>-0.1815432351934901</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>-0.1835244596655838</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>-0.1849979117095959</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>-0.1860213635975537</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>-0.1866594858669954</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>-0.1869744395729599</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>-0.1870233900526064</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>-0.1868586486417338</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>-0.1865274566671571</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>-0.1860719205526392</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>-0.1855290609048617</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>-0.1849309547931556</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>-0.1843049528011179</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>-0.183673953822748</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -840,6 +3738,132 @@
       <c r="E24" t="n">
         <v>4.412785298205544</v>
       </c>
+      <c r="F24" t="n">
+        <v>4.252934728075714</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.056519888213963</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.834213952754832</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.59580164973313</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.3496038917157</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.102579617175106</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.860439208481464</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.627759140609608</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.408095839111156</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2.204097348121854</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.017611598413683</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.849790294417247</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.701187614707542</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.571853067761672</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.461417979672256</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.369175221228701</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.294151911103307</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.235174958921805</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.19109320216649</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.160488671682749</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.141876495121238</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.133749558746872</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.134786081402642</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.143633624200109</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1.158825165355809</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.179058231991653</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.203131081609827</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1.229961784333234</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.258591890260269</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1.288185731994866</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.318027148889955</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.347559795330534</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.376232960492918</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.40365189752736</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.429511264401346</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.453589117174906</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.475737383487109</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1.495872318673271</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>1.513965243360778</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1.530033716659985</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>1.544133259042861</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>1.556349705498844</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -857,6 +3881,132 @@
       <c r="E25" t="n">
         <v>0.418313918418862</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.3952414346132025</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3749765857750698</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.3574859709341501</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3425306496721286</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.3299387216334171</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3195259395879824</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.311103988995945</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.3044834112667085</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.299476464488171</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.2958996341825559</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.2935757596896083</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.2923357900025804</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.2920201866653134</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.2924799949742359</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.2935776075057856</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.2951872461730058</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.297195190642003</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.2994997819896931</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.3019666023822821</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.3046282855023843</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.3073587034576445</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.3100891252657776</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.3127363519195852</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.3153096645578848</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.3178135676504158</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.3201788247032137</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.3223825135288232</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.3244147366527232</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.3262715068327903</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.3279533142369903</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.3294642740487447</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.3308014726134961</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.3319914362838263</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.3330380855467046</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.3339521628933632</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.3347465001825609</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.3354342304967456</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.3360284258461597</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.3365418200280678</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.3369865931316937</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.3373742072619818</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.3377152870793753</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -874,6 +4024,132 @@
       <c r="E26" t="n">
         <v>0.3341052305313456</v>
       </c>
+      <c r="F26" t="n">
+        <v>0.3114575275116181</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2894797530190908</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2684778241378739</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2486973733164268</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.2303309315468468</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.2135060239947411</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.198299231888391</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.1847427370942383</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.172831139644638</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.1625278210067059</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.1537708121219268</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.1464781566356458</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.1405527651157004</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.1358867620305887</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.1323653323731027</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1298700797446361</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.1282819125331127</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.1274834794042442</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.1273513334706015</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.1278497439853238</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.12882314307926</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.130164295593952</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.1317795743028681</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.1336330156501668</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.1356611488398129</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.1377592393607906</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.1398675996392334</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.1419421175063489</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.1439474034272082</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.1458556857277645</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.1476460398859526</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.1493024228180639</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.1508306564188431</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.1522109746175997</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.1534416876726926</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.154525518597441</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.155467854573357</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.1562761790404351</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.1569595413843848</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.1575280926367387</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.1579926796028594</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.1583644951443455</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -891,6 +4167,132 @@
       <c r="E27" t="n">
         <v>0.240114975718504</v>
       </c>
+      <c r="F27" t="n">
+        <v>0.2144928374182671</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1902078344933218</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1673118244115118</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1460534165283752</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.1265538009880573</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1088847236750499</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.09307485115686946</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.0791152333555984</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.0669652238162151</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.05655805067495719</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.04780600825954556</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.04060523903542141</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.03484008600738277</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.03038700435546389</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.02711802854829213</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.02490379811460523</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.02361615173130282</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.02313030521615234</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.02325431430484771</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.02405334862668701</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.02532722567211863</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.02696615237966783</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.02883262766749129</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.03091779299707544</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.03319491829882257</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.03553619815668328</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.03788098475868298</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.04018416097096451</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.04240965578517929</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.04452929757731955</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.04652197941199602</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.04835605041696892</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0.0500579373585191</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.05160302746815625</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.05299048638357951</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.05422321072096102</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0.05530685200408706</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.05624919743128354</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.05705962179475124</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0.05774861096086296</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0.05832734631224127</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0.05880734769970376</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -908,6 +4310,132 @@
       <c r="E28" t="n">
         <v>1.006006706456543</v>
       </c>
+      <c r="F28" t="n">
+        <v>0.9753280268417985</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.9462112824684961</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.9191822402723342</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.8944592837520066</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.8722273091350478</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8525904460624459</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.8355786457545776</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8211605853703056</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.809255137346652</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.7997417549921537</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.7924697692615693</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.7872666313814249</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.783945147163321</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.7823097535290411</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.7821618912337855</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.7833045306534164</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.7855459100386534</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.7887025478045869</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.7925385362991459</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.7970750581496748</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.8020489122232544</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.8073168309659795</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.8127098426318818</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.8182014460008253</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.8237408291750281</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.8291771803816446</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.8344425006454442</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.8394877358016102</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.8442766672704473</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.8487839145003918</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.8529935884443381</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.8568811486453523</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.8604600992405013</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.8637369180678522</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.8667212148208351</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.8694271828154828</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0.8718719992665684</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.8740748576003651</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0.876056232141442</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.8778372460186273</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0.879439134621508</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0.8808827988582286</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -925,6 +4453,132 @@
       <c r="E29" t="n">
         <v>4.629787631222155</v>
       </c>
+      <c r="F29" t="n">
+        <v>4.260406623969831</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.913057512426272</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.589060253657683</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.289756512132542</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.015929560002573</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.767899500915329</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.545569112307512</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.348474901134141</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.175838997070076</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.026620622127718</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.899566101190019</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.79325655751561</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.70615261271337</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.636635568692801</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.583044695097408</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.543710380899961</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.516983032408455</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.501257710382409</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.495031064876659</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.496918174970808</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.505520540310487</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1.519543608636728</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.537811710205038</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.559320047235361</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1.583161148571537</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.608467934708572</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.634490553691985</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1.660595807783848</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.686261027656183</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1.711065316161449</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.734680166173874</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.756839424824568</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1.777396693984205</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1.796239242033139</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.813311193570623</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.828603816756585</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.842147760787372</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>1.85400534657132</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1.864263570616393</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1.873027842291553</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>1.880416453427631</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1.886555764429338</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -942,6 +4596,132 @@
       <c r="E30" t="n">
         <v>0.8626796424889716</v>
       </c>
+      <c r="F30" t="n">
+        <v>0.8251641496857427</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.7910154688127271</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.7605293250346091</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.7335636839833835</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.7100587509171536</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.6898937531653733</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.6729070264040793</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.658904986263443</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.6476706675627272</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.6389713691643761</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6325653601942158</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.6282076886152862</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.6256551372832447</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.6246703770216202</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.6250253694886192</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.6265040752958242</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.628904525080667</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.6320403129268607</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.6357200554757344</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.639900948661802</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.6443672742711501</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.6489810796990479</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.6536159922864191</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.6582469339202756</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.6628237796860467</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.6672225050656013</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.6713876214574124</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.6752868659481389</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0.6788997665581105</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.6822153014278625</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.6852304305113655</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.6879409642302463</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.6903736330977834</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.6925318364284847</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0.6944303443912199</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.696088751284786</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0.6975282245024114</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.6987707586277537</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0.6998385613427671</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.7007535493954267</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0.7015369401530586</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.7022089293900536</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -959,6 +4739,132 @@
       <c r="E31" t="n">
         <v>-0.3151965601859712</v>
       </c>
+      <c r="F31" t="n">
+        <v>-0.3532690110461045</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.385849287565115</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.4134059254192526</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.4362170431208913</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.4546858816662452</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.4692254650149928</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.480250706824681</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.4881715092771685</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.493386400453751</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.4962773797545258</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.4972058345022246</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.4965094253122818</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.4944998440717243</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.4914613532287961</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-0.4876500187394065</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.4832935516021464</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.4785916750582335</v>
+      </c>
+      <c r="W31" t="n">
+        <v>-0.4737169367975886</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-0.4687554390587954</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-0.4638182329336221</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>-0.4590935337598461</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>-0.4546669798989366</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>-0.4505569490678815</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>-0.4467629398542756</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>-0.4433629668752807</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>-0.4404248668858849</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>-0.4379497491891278</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>-0.4359240444246625</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>-0.4343264440237981</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>-0.4331299410535313</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>-0.4323034324695071</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>-0.4318028844472268</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>-0.4315869920024713</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>-0.4316397843651146</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>-0.4319245756916395</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>-0.4324058652839427</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>-0.4330498862552193</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>-0.4338250357207272</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>-0.4347021811800086</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>-0.4356548522870714</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>-0.4366593422501158</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>-0.4376947329013142</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -976,6 +4882,132 @@
       <c r="E32" t="n">
         <v>0.716681236468334</v>
       </c>
+      <c r="F32" t="n">
+        <v>0.686234366589397</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.6585458721079998</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.6336819770642584</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.6116647036652901</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5924520148806839</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5759555147976722</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.5620505476207956</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.550584155020744</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.5413825376924367</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.5342576639582526</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.5290130547480766</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.5254487859388383</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.5233657522274978</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.5225692387972638</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.5228718485788826</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.5240958343495786</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.5260748862282159</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.5286554261552135</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.5317115350351135</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.5351609006190012</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.5388311795565699</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.5426161211006516</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.5464369643423044</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.5502579305427077</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.5540090739422981</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.557601516658234</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.5609952621476668</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.5641650639568058</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.5670949262055005</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.5697765625155423</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.5722082091075342</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.5743909416700756</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0.5763436526800423</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.5780680543683092</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0.5795784130380908</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.5808914025202583</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0.5820249134639139</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.5829974486549995</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.5838276232482555</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0.5845337548361953</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0.5851335316849532</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0.5856437520749658</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -993,6 +5025,132 @@
       <c r="E33" t="n">
         <v>0.8553789591596154</v>
       </c>
+      <c r="F33" t="n">
+        <v>0.8340600681187095</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.8151188583656871</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.7985577451346273</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.7842851999539038</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.7722026114599519</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.7621853707537077</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.7540915908657919</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7477672140485971</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.7430507962009815</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.7397776494978879</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.7377833640838098</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.7369067527548366</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.7369922637631531</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.7378919072282599</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.7394667401784576</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.741587954470287</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.7441376108675908</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.7470090614078404</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.7500952521280695</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.7533799554490921</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.7567353320000672</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.7600902932638669</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.763380310910216</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.7665998760752476</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.7697242796068279</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.772687570210225</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.7754670300064288</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.7780518716406315</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0.780437486064085</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.7826241427998225</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.7846161092280318</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.7864134283460489</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0.7880414464124903</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0.7895034064028673</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0.7908120320533976</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0.7919816693025807</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0.7930270237739364</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0.793962773162065</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0.794803259282776</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0.7955622456807029</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0.7962527302478862</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0.7968868066958442</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1010,6 +5168,132 @@
       <c r="E34" t="n">
         <v>-0.7183876606615448</v>
       </c>
+      <c r="F34" t="n">
+        <v>-0.7414448604412784</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.7622117298657988</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.7806275248047468</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.7967757351053156</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.8107502883242673</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.8226723354434469</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.8326821006375561</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.8409333535430644</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.8475882825693336</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0.8528130473243117</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.8567739789444661</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-0.8596343820679878</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-0.8615518951568363</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-0.8626763676086617</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-0.8631482127761875</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-0.8630971957674558</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-0.8626416141584561</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-0.8618878289500591</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-0.8608840198793949</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-0.8596972640349864</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>-0.858466415396321</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>-0.857259810463428</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>-0.8560905463030397</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>-0.854957362612587</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>-0.8539348399320953</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>-0.8530912133052949</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>-0.8524433169906936</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>-0.8519957764731295</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>-0.851747325990481</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>-0.8516922414753658</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>-0.8518212761005356</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>-0.8520921146491984</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>-0.8525150136403079</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>-0.8530833301661027</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>-0.8537810688673321</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>-0.8545911659299026</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>-0.8554967292153757</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>-0.8564814016832093</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>-0.8575296272039736</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>-0.8586268477569369</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>-0.8597596445750612</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>-0.8609158305983362</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1027,6 +5311,132 @@
       <c r="E35" t="n">
         <v>0.7974507599150777</v>
       </c>
+      <c r="F35" t="n">
+        <v>0.7905554755476571</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.7846425909698569</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.7798147398145651</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.7760862060661743</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.7734351448631431</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.7718120421928775</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.7711469572603005</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.7713556199861024</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.7723445644634914</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.7740153939831951</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.7762682741894669</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.7790047451180639</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.7821299358760404</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.7855542585613552</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.7891946511660238</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.7929754328637306</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.7968288292739171</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.8006952199559374</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.8045879965000154</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.808383581174537</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.8120479527534583</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.8155538336799243</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.8189177703326262</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.8221089727039463</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.8250772051205405</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.8278219417449321</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.8303463766952642</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.8326571052168257</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.8347634793051255</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.8366770003414671</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.8384107618831215</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.839975205661882</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.8413866211318045</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.8426608120978274</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0.843813429410273</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.8448596692876612</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.84581405731555</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.8466902820445192</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.8475010715199249</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.8482581090533012</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0.8489719835399906</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0.8496521696603814</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1044,6 +5454,132 @@
       <c r="E36" t="n">
         <v>0.7389886874256673</v>
       </c>
+      <c r="F36" t="n">
+        <v>0.727972931849678</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.7191105537657125</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.7124107639484751</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.7077533747229866</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.7049857932201927</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.7039321620547431</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.7044025756490774</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7062006034104212</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.7091294310162437</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.7129967788740106</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.7176187470809134</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.7228227249315309</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.728449490781675</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.7343546165213343</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.7404092803323734</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.7465005818137365</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.7525314447939599</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.758420185019623</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.7642044202836078</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.7697010448886541</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.7748726511684341</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.7796927474948248</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.7842065344788754</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.7883812258332861</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.792149084811498</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.7955234325227419</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.7985223487272585</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.8011679562136566</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.8034853355006226</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0.8055015641658911</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0.8072448713057297</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.8087443152533975</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0.8100243278916541</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0.8111138754198622</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0.8120405052589597</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.8128301258698654</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0.8135067629360883</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.8140924074333906</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.8146069288380897</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0.8150680450709433</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0.8154913403829005</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0.8158903228162349</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1061,6 +5597,132 @@
       <c r="E37" t="n">
         <v>0.7085264836964</v>
       </c>
+      <c r="F37" t="n">
+        <v>0.6962065270175193</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.6862139547262048</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.678547115737139</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.6730778939013309</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.6696423585938021</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.6680526528811306</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.6681064766452607</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.6695948734511282</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.6723086056820705</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.6760432697516021</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.680603304164053</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.6858050308921322</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.6914788581753164</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.6974707612505867</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.7036431469786227</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.709875198802346</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.7160627897846293</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.7221180433943093</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.7280762509434914</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.7337468168001122</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.7390877651553059</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.7440695139699732</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.7487365485564006</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.7530540082190746</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.7569509908397968</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.7604396843358329</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.7635379113827482</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.766267912674263</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.7686551769189541</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.770727422084681</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0.7725136960708159</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.7740437285060194</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.7753434139557253</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.77644257041881</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0.7773698961586291</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.7781524269194158</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0.7788152826144461</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.7793814982916468</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.7798719240619402</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.7803051855246885</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0.7806976953437628</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0.7810637071766994</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1078,6 +5740,132 @@
       <c r="E38" t="n">
         <v>0.6847788309521962</v>
       </c>
+      <c r="F38" t="n">
+        <v>0.6715459078772924</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.6602068392456851</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.6507070937769514</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.6429408919349343</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.6367852149004513</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.6321060323647196</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.628762832589865</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.6266124842916974</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.6255124692027317</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.6253235390153645</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.6259118524739686</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.6271506463921177</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.6289214918390917</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.6311151839307406</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.6336323108681855</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.6363835451753248</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.6392896974664483</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.6422815704671968</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.6453482971249264</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.6483808281337331</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.6513383563860901</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.6541879878861094</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.656932329050577</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.6595417560411649</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.6619728431311565</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.664220258539275</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.6662830223598826</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.6681639956547356</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.6698691994282715</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.6714071563360547</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.6727882901853822</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.6740249091659762</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0.6751277204225636</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.6761103253011451</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0.6769864124315924</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.6777694314506912</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0.6784723644207482</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.6791075380946893</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.6796864818780958</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.680219826957401</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0.6807172415985641</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0.6811873977186317</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1095,6 +5883,132 @@
       <c r="E39" t="n">
         <v>0.574212847756385</v>
       </c>
+      <c r="F39" t="n">
+        <v>0.5716012522816788</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.5696288971273746</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.568359815712389</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.5677818483982588</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5678600348817064</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.5685432464059461</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.5697693238822148</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.5714693556328135</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.5735711705550333</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.5760021411072697</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.5786913859664308</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.5815714548706268</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.5845795703933068</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.5876584937055999</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.5907570741512411</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.5938305358289652</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.5968405483625294</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.5997551235855568</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.6026130398597916</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.6053152623497524</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.6078483768357057</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.6102039334675957</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.6124184364184769</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.6144771055894152</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.6163371823326592</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.6180074753485939</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.6194987955811083</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.6208234340644357</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.6219947147741099</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.6230265889819456</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.6239332788303688</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.6247354567449931</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.6254382573332935</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0.6260557512348232</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0.6266012325380781</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0.6270870705370291</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0.6275246325528501</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.6279242345129019</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.6282951197142183</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0.6286454617141317</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0.6289823874105142</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0.6293120165953333</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1112,6 +6026,132 @@
       <c r="E40" t="n">
         <v>0.7459335516201956</v>
       </c>
+      <c r="F40" t="n">
+        <v>0.7426040057954532</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.7396395466441096</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.7372143960307088</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.7354157644818418</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.7342853714651282</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.733831200200889</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.7340351649194728</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7348595740255329</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.7362526162583382</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.7381529577518806</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.7404935517493498</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.7432047550150669</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.7462168370585774</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.7494619602492214</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.7528757012597281</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.7563981772841053</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.7599748341717246</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.7635569479450678</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.7671683080837957</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.7706900718814552</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.7740940318240184</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.7773569763274568</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.7804998121919023</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.7834927796145041</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.7862846271970336</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.7888753392000077</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.791267746475392</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.7934675359862469</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.7954827601863581</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.7973233462995839</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.7990006328672845</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.8005231777705852</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.8019054794145016</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0.8031612454761226</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0.8043043612437798</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0.8053483246559248</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0.8063060751674938</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.8071898473649679</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0.8080110592349826</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.8087802339937671</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.8095069516936076</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0.8101998268413803</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1129,6 +6169,132 @@
       <c r="E41" t="n">
         <v>0.5431114345647607</v>
       </c>
+      <c r="F41" t="n">
+        <v>0.5396535507418863</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.5374201250950541</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.5362930348047068</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.5361294941317405</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5367904977775723</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.5381431565236071</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.5400624009878189</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.5424322657775538</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.5451467536430132</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.5481103382051452</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.5512381599838512</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.5544559666799949</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.5576998445051402</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.5609157830419169</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.5640591118178762</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.5670938425538909</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.569991946943295</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.5727325958614894</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.5753244068871814</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.5777285682054816</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.5799413657103102</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.5819640241771652</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.5838129371335813</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.5854886997757256</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.5869871958208291</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.5883210586932193</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.5895044022932775</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.5905519203581218</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0.591478467946442</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0.5922987314403028</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.593026961072314</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.5936735967688624</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0.5942538017063363</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0.5947797302415233</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0.5952624850945226</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.5957120515498047</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0.5961372859440489</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.5965459294396096</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.5969446429230286</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.5973390580852221</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0.5977338408357735</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0.598132763634895</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1146,6 +6312,132 @@
       <c r="E42" t="n">
         <v>0.6440936668806061</v>
       </c>
+      <c r="F42" t="n">
+        <v>0.6255332231176933</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.6098676487144823</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.5970871057263092</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.5870439812981216</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5795500818795847</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.5743899628480943</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.5713310820026727</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.5701322977379911</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.5705509044340835</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.5723483589327754</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.5752948464434053</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.5791728223552115</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.5837796550742762</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.5889294845510611</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.5944544018832251</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.6002050471683034</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.6060507153673467</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.6118790530189311</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.6177222866343497</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.6233480413875413</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.6286973171974638</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.6337248459682008</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.6384754209140525</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.6429001298781227</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.6469035976771401</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.65049090869041</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.6536737809236138</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0.6564697954699406</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0.6589011457767239</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0.6609934453573542</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.6627746553666281</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.6642824995538341</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0.6655345117335667</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0.6665618032873343</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0.6673946264859983</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0.6680618740576459</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0.6685907432560482</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.6690064790472153</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0.6693321992428253</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0.6695887924134881</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0.669794878414074</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0.6699668217370648</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1163,6 +6455,132 @@
       <c r="E43" t="n">
         <v>0.6842411526172791</v>
       </c>
+      <c r="F43" t="n">
+        <v>0.674707654587844</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.6668207937175392</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.6605231203659633</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.6557031709315193</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.6522363342248603</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.6499901037491309</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.6488284610323757</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.6486154176032072</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.6492179013471037</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.6505080497595606</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.65236497812968</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.6546760870916045</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.6573379695557955</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.6602569724785352</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.6633494644882765</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.6665418561569877</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.6697704156782902</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.6729809188518797</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.6761777897272498</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.6792631295542111</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.6822092600678457</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.6849952426247025</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.6876353704765049</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.6901089693348561</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.6923802006257713</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.6944518727239788</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.696330018559996</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.6980234647520076</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0.6995431775109888</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.7009016849495739</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0.7021125632286473</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.7031905411382445</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.7041479914094221</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0.7049996005713551</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0.7057596942702399</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.706441926274051</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0.7070591122395106</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.7076231134287533</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.7081447589357992</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0.7086338024129033</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0.7090989082942345</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0.7095476627667761</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1180,6 +6598,132 @@
       <c r="E44" t="n">
         <v>0.6615201832637887</v>
       </c>
+      <c r="F44" t="n">
+        <v>0.6571711918399078</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.6540492875121656</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.6521374166798799</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.6513449020811692</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.6515652327694857</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.6526821126841809</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.6545746096693588</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.6571212977938029</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.6602035523914108</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.6637080999593364</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.6675289225100232</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.6715686082587726</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.6757392321788331</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.6799628417538253</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.684171615493212</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.6883077545540756</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.6923231611257904</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.6961789510341853</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.6999066011712044</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.7034067317130155</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.7066655761419994</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.70967589202654</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.7124724692648291</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.7150430345005275</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.7173533692517085</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.7194170748050795</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.721250161808569</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.7228702946775832</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0.7242961671779432</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.7255469798840495</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.7266419924815182</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.7276010894237477</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.7284395474880454</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0.7291754603596311</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.7298257906302615</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.7304061795841876</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0.7309308614433231</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.7314126244482752</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0.7318628066477337</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.7322913209917123</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0.7327067043644954</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.7331161856073029</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1197,6 +6741,132 @@
       <c r="E45" t="n">
         <v>0.6285334224303726</v>
       </c>
+      <c r="F45" t="n">
+        <v>0.6179480823764323</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.6099655863939498</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.6045941722730961</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.6016593147531515</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.6009475485642568</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.6022192455979882</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.6052205099277905</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.6096928015815704</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.6153806652771273</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.6220378030119714</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.6294317083658487</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.6373470604905865</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.6455880560222452</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.6539798390735214</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.6623691732613977</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.6706244852548744</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.6786353962753331</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.6863118460053831</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.6937396868241027</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.700670972129361</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.7070736196324421</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.7129289225259791</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.7183258790633615</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.7232315868429153</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.7275532010488911</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.7313212194310377</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.7345708261199486</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.7373410710930599</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.7396735337279986</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0.7416111293915155</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0.7431970770581451</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.7444829551746274</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0.7454957458459408</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0.7462768051776585</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0.7468647141156247</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.7472951156586057</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0.7476005095423314</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.7478101513893497</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.7479500316539121</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0.7480429223726849</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0.7481084796362827</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0.748163390474737</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1214,6 +6884,132 @@
       <c r="E46" t="n">
         <v>-1.269083159339629</v>
       </c>
+      <c r="F46" t="n">
+        <v>-1.271243673110342</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1.273154063378438</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-1.274843225096461</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-1.27641624693174</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-1.277961814156255</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-1.279552323197125</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-1.281245238751652</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-1.283084550170019</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1.285102242298947</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-1.287319740504015</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-1.289749298536373</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-1.292395309985888</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-1.295255532629802</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-1.298322220889241</v>
+      </c>
+      <c r="T46" t="n">
+        <v>-1.301583165395004</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-1.305022640867349</v>
+      </c>
+      <c r="V46" t="n">
+        <v>-1.308622264619196</v>
+      </c>
+      <c r="W46" t="n">
+        <v>-1.312361768414521</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-1.316077450249493</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>-1.319906542150321</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>-1.323825015911451</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>-1.327809202620137</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>-1.331719659772011</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>-1.335547514299871</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>-1.339400656832904</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>-1.343256770287852</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>-1.347095674121986</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>-1.350899470248094</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>-1.354652568228664</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>-1.358341653529748</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>-1.361955616229072</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>-1.365393783529784</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>-1.368744656342416</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>-1.372002323934097</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>-1.375162548066881</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>-1.378222719576916</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>-1.381181662083381</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>-1.384039442222068</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>-1.386797186119078</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>-1.389456904491631</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>-1.392021328637803</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>-1.394493758915979</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1231,6 +7027,132 @@
       <c r="E47" t="n">
         <v>-0.9866321616005264</v>
       </c>
+      <c r="F47" t="n">
+        <v>-0.9895295623301098</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.9920318229309126</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-0.9941676003709661</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-0.9960346589839247</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-0.9977201972056097</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.9992991789573904</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-1.000834894221761</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-1.002379678230358</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1.003975733845448</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-1.005656012646201</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-1.007445118768758</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-1.009360210757427</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-1.01141188451836</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-1.013605026058891</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-1.015939626477169</v>
+      </c>
+      <c r="U47" t="n">
+        <v>-1.018411554075173</v>
+      </c>
+      <c r="V47" t="n">
+        <v>-1.021013279918184</v>
+      </c>
+      <c r="W47" t="n">
+        <v>-1.023734554013659</v>
+      </c>
+      <c r="X47" t="n">
+        <v>-1.026436238393651</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>-1.029248058010015</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>-1.032152537935104</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>-1.035132358339292</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>-1.038068030463389</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>-1.040955592595337</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>-1.043890868936824</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>-1.046854183781542</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>-1.049827786314767</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>-1.052795568691829</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>-1.055743094058868</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>-1.058657634306407</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>-1.061528173766135</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>-1.06426854555683</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>-1.066951400750125</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>-1.06956985715425</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>-1.072118528375546</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>-1.074593492691221</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>-1.076992133683394</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>-1.079312995543911</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>-1.081555639308363</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>-1.083720502050671</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>-1.085808761492021</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>-1.087822207942975</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1248,6 +7170,132 @@
       <c r="E48" t="n">
         <v>-0.8805820843252128</v>
       </c>
+      <c r="F48" t="n">
+        <v>-0.882612402952359</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.8837931067750172</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.8842330983123028</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.8841227519580193</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.8836313500501719</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.8829068654324195</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.8820764323479675</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.8812472654739707</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.8805078307590133</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-0.8799291913965448</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.8795664646506514</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-0.8794603391912255</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-0.8796386135999791</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-0.8801177252151334</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-0.8809042449987016</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-0.8819963191030942</v>
+      </c>
+      <c r="V48" t="n">
+        <v>-0.8833850417087514</v>
+      </c>
+      <c r="W48" t="n">
+        <v>-0.8850557468556761</v>
+      </c>
+      <c r="X48" t="n">
+        <v>-0.8868492566159513</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>-0.8889041828811992</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>-0.8911918872697199</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>-0.8936831182038647</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>-0.8962376765672811</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>-0.8988424824531166</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>-0.9015901390261529</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>-0.9044473728067998</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>-0.9073835075069753</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>-0.9103702760816327</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>-0.9133819996019547</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>-0.916395699791932</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>-0.9193911417197348</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>-0.9222717582724674</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>-0.9251056990955524</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>-0.9278797334398114</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>-0.9305831673994736</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>-0.9332076891108236</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>-0.9357471557726512</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>-0.9381973716812678</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>-0.9405558645371362</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>-0.9428216640268385</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>-0.9449950869026481</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>-0.9470775319313213</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1265,6 +7313,132 @@
       <c r="E49" t="n">
         <v>-0.6456242850254624</v>
       </c>
+      <c r="F49" t="n">
+        <v>-0.6463917846117353</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.6466490344547871</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.6464675476906298</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.6459830928009028</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.6453149553193503</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.6445660197636518</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.6438232208882199</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.6431583946475509</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.6426292998801495</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-0.6422807568009754</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.6421458531406133</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-0.6422471794754498</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-0.6425980639675066</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-0.6432037835207134</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-0.6440627336359703</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-0.6451675433321012</v>
+      </c>
+      <c r="V49" t="n">
+        <v>-0.6465061246962113</v>
+      </c>
+      <c r="W49" t="n">
+        <v>-0.648062649193448</v>
+      </c>
+      <c r="X49" t="n">
+        <v>-0.6497066724717148</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-0.6515459737156323</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>-0.6535556545024348</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>-0.6557110930564707</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>-0.6578987114351387</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>-0.6601072889790787</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>-0.6624116914777919</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>-0.6647857841821064</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>-0.6672058184227344</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>-0.669650153314182</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>-0.6720993639885365</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>-0.6745362836116352</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>-0.6769459957776678</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>-0.6792506952235868</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>-0.6815079542870729</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>-0.6837085271608871</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>-0.6858450704597346</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>-0.6879120701636438</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>-0.6899056657380145</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>-0.6918234648527505</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>-0.693664360429247</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>-0.6954283521706416</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>-0.6971163755240315</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>-0.6987301403563237</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1282,6 +7456,132 @@
       <c r="E50" t="n">
         <v>-0.05058407820780059</v>
       </c>
+      <c r="F50" t="n">
+        <v>-0.05167695606712541</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.05275345600267813</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.05379470955639214</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-0.05481661169668867</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.05583354094829853</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.05685747032043047</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.05789795927046282</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.05896224096412825</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.06005536944729607</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-0.06118041074689617</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.06233866077571055</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-0.06352987641362608</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-0.06475250921657402</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-0.06600393391909257</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-0.06728066616418356</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-0.06857856570055845</v>
+      </c>
+      <c r="V50" t="n">
+        <v>-0.0698930226716219</v>
+      </c>
+      <c r="W50" t="n">
+        <v>-0.07121912564934034</v>
+      </c>
+      <c r="X50" t="n">
+        <v>-0.07249147783363669</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>-0.07377206690223477</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>-0.07505520093352418</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>-0.07633538338410494</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>-0.07755769801404797</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>-0.07872241238257585</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>-0.07987952245415419</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>-0.08102353640495449</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>-0.08214956820336067</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>-0.08325334911647553</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>-0.0843312238835467</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>-0.08538013497875202</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>-0.086397598854855</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>-0.0873426581084204</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>-0.08825454492988589</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>-0.08913203523234763</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>-0.08997429604063646</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>-0.09078092757139505</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>-0.09155190705006355</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>-0.09228753731174945</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>-0.09298839759445901</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>-0.09365529681459317</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>-0.09428922987176272</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>-0.0948913373545784</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1299,6 +7599,132 @@
       <c r="E51" t="n">
         <v>-0.8713106743224778</v>
       </c>
+      <c r="F51" t="n">
+        <v>-0.8730681017871998</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.8740686402257279</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-0.8743692806839475</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-0.8741221520180011</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-0.8734680401992821</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.8725349865689827</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.8714372715318502</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.8702750183770886</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.8691342178034516</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-0.8680870777273478</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.8671926202792609</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-0.8664974626874523</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-0.8660367307407912</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-0.8658350629411427</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-0.8659076707713388</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-0.8662614261893584</v>
+      </c>
+      <c r="V51" t="n">
+        <v>-0.8668959519601106</v>
+      </c>
+      <c r="W51" t="n">
+        <v>-0.8678046941352936</v>
+      </c>
+      <c r="X51" t="n">
+        <v>-0.8688355294501061</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>-0.8701361163654466</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>-0.8716834957501162</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>-0.8734535231957917</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>-0.8753129110588184</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>-0.8772543647270254</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>-0.879370542512659</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>-0.8816296250015497</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>-0.8840018986494442</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>-0.8864594744228056</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>-0.8889765207731293</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>-0.8915294497605729</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>-0.8940970329567786</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>-0.8965900306737805</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>-0.8990666600024048</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>-0.9015117711966423</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>-0.9039127345391477</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>-0.9062592369598133</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>-0.9085431129032763</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>-0.9107581598989192</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>-0.9128999462842705</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>-0.9149656155188105</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>-0.9169536916303722</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>-0.9188638895894932</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1316,6 +7742,132 @@
       <c r="E52" t="n">
         <v>-0.8713106743224778</v>
       </c>
+      <c r="F52" t="n">
+        <v>-0.8730681017871998</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.8740686402257279</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-0.8743692806839475</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-0.8741221520180011</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.8734680401992821</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.8725349865689827</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.8714372715318502</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.8702750183770886</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.8691342178034516</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-0.8680870777273478</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.8671926202792609</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-0.8664974626874523</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-0.8660367307407912</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-0.8658350629411427</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-0.8659076707713388</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-0.8662614261893584</v>
+      </c>
+      <c r="V52" t="n">
+        <v>-0.8668959519601106</v>
+      </c>
+      <c r="W52" t="n">
+        <v>-0.8678046941352936</v>
+      </c>
+      <c r="X52" t="n">
+        <v>-0.8688355294501061</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>-0.8701361163654466</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>-0.8716834957501162</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>-0.8734535231957917</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>-0.8753129110588184</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>-0.8772543647270254</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>-0.879370542512659</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>-0.8816296250015497</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>-0.8840018986494442</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>-0.8864594744228056</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>-0.8889765207731293</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>-0.8915294497605729</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>-0.8940970329567786</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>-0.8965900306737805</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>-0.8990666600024048</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>-0.9015117711966423</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>-0.9039127345391477</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>-0.9062592369598133</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>-0.9085431129032763</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>-0.9107581598989192</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>-0.9128999462842705</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>-0.9149656155188105</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>-0.9169536916303722</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>-0.9188638895894932</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1333,6 +7885,132 @@
       <c r="E53" t="n">
         <v>-1.116050377388618</v>
       </c>
+      <c r="F53" t="n">
+        <v>-1.122564331545705</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1.127598937628377</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-1.131338092430225</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-1.134051142730193</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1.135976993719596</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-1.137324980204833</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-1.13827622102879</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-1.13898527130634</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-1.139581958061322</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-1.140173324093214</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-1.140845622983268</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-1.141666322419454</v>
+      </c>
+      <c r="R53" t="n">
+        <v>-1.142686083739024</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-1.143940693399202</v>
+      </c>
+      <c r="T53" t="n">
+        <v>-1.145452927645392</v>
+      </c>
+      <c r="U53" t="n">
+        <v>-1.147234335575063</v>
+      </c>
+      <c r="V53" t="n">
+        <v>-1.149286928640057</v>
+      </c>
+      <c r="W53" t="n">
+        <v>-1.151604766830119</v>
+      </c>
+      <c r="X53" t="n">
+        <v>-1.154015979375115</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>-1.156684905863103</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>-1.159587085367572</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>-1.162695705172497</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>-1.165855531761394</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>-1.169054560934858</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>-1.172403055497667</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>-1.175867152551627</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>-1.179414888476897</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>-1.183016411661511</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>-1.186644278653782</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>-1.190273663310561</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>-1.193882476479076</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>-1.197356972811465</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>-1.200779426240358</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>-1.204134935471905</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>-1.207411360235234</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>-1.2105991267128</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>-1.213691021507366</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>-1.21668197171086</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>-1.21956881696277</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>-1.222350079543137</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>-1.225025737778213</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>-1.227597007051697</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1350,6 +8028,132 @@
       <c r="E54" t="n">
         <v>-0.1845617210597629</v>
       </c>
+      <c r="F54" t="n">
+        <v>-0.183427115197337</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.1822697469276006</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.1810917869332312</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-0.1799469002801996</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.178880145914472</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.1779291451581433</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.1771240482802004</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.1764878574244538</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.1760368902334703</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-0.1757813435670078</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.175725921075622</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-0.1758704946001668</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-0.1762107754230582</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-0.1767389765765893</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-0.1774444517820948</v>
+      </c>
+      <c r="U54" t="n">
+        <v>-0.1783143002147899</v>
+      </c>
+      <c r="V54" t="n">
+        <v>-0.1793339292584546</v>
+      </c>
+      <c r="W54" t="n">
+        <v>-0.1804875698387318</v>
+      </c>
+      <c r="X54" t="n">
+        <v>-0.1816806343202606</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>-0.1829858880890721</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>-0.1843843840450352</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>-0.1858584746182252</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>-0.1873283236743311</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>-0.1887866075827266</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>-0.1902875834819091</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>-0.1918145482213455</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>-0.1933528285665005</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>-0.1948893666897948</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>-0.1964127342838293</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>-0.1979130986717848</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>-0.1993821638205</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>-0.2007664216172898</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>-0.2021093470028692</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>-0.2034062046821757</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>-0.2046535243716727</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>-0.2058489368928397</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>-0.2069910586041988</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>-0.2080793620714028</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>-0.209114052285566</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>-0.2100959491253998</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>-0.2110263773454338</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>-0.2119070650292796</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1367,6 +8171,132 @@
       <c r="E55" t="n">
         <v>-1.004961404428174</v>
       </c>
+      <c r="F55" t="n">
+        <v>-1.007527258391683</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-1.009811283989444</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-1.011828722526139</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-1.013665365079471</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-1.015397219506041</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-1.017088640349872</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-1.018792886355623</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-1.020552907479935</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-1.022402212054442</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-1.024365777706642</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-1.026460971092455</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-1.028698452843592</v>
+      </c>
+      <c r="R55" t="n">
+        <v>-1.031083052119363</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-1.033614600848917</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-1.036288721605829</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-1.039097565496286</v>
+      </c>
+      <c r="V55" t="n">
+        <v>-1.042030497876603</v>
+      </c>
+      <c r="W55" t="n">
+        <v>-1.045074730507181</v>
+      </c>
+      <c r="X55" t="n">
+        <v>-1.048083862969237</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>-1.051191741320002</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>-1.054379525780233</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>-1.057629166244659</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>-1.060815958505078</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>-1.063936003644191</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>-1.067090330785702</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>-1.070259414928075</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>-1.073425928590615</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>-1.076574303875036</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>-1.079690745082237</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>-1.082763236012129</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>-1.085781517955059</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>-1.088655852436321</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>-1.091464043088087</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>-1.094200084148328</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>-1.096859325672942</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>-1.099438548067294</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>-1.101935798444234</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>-1.10435023941913</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>-1.106682001627963</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>-1.10893204084123</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>-1.111102001907644</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>-1.113194091210492</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1384,6 +8314,132 @@
       <c r="E56" t="n">
         <v>-0.8792607958124202</v>
       </c>
+      <c r="F56" t="n">
+        <v>-0.8784208880994699</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.8783656048562364</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-0.8789434947904596</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.8800656753960063</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-0.8816550390301512</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.8836419299191305</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.8859634030105513</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.8885627355500093</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.8913889887409601</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-0.8943966143315241</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-0.8975450861502936</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-0.9007985452169869</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-0.9041254528551339</v>
+      </c>
+      <c r="S56" t="n">
+        <v>-0.9074982503152305</v>
+      </c>
+      <c r="T56" t="n">
+        <v>-0.9108930260184258</v>
+      </c>
+      <c r="U56" t="n">
+        <v>-0.9142891928906358</v>
+      </c>
+      <c r="V56" t="n">
+        <v>-0.9176691786672231</v>
+      </c>
+      <c r="W56" t="n">
+        <v>-0.9210181318059696</v>
+      </c>
+      <c r="X56" t="n">
+        <v>-0.9242177572387613</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>-0.9273758452996583</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>-0.930482245330291</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>-0.9335293021906063</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>-0.9364239982409077</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>-0.9391713655265355</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>-0.9418630250486013</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>-0.9444936671618424</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>-0.9470596190189029</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>-0.949558297921694</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>-0.9519880681749215</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>-0.9543481108095879</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>-0.9566383110583709</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>-0.9587937357932084</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>-0.9608835428588151</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>-0.962908948126757</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>-0.9648711584342853</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>-0.9667717528805171</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>-0.9686125887152233</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>-0.9703957293891218</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>-0.9721233834433571</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>-0.9737978511014362</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>-0.9754214783228914</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>-0.9769966178922471</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1401,6 +8457,132 @@
       <c r="E57" t="n">
         <v>-0.9119639220328055</v>
       </c>
+      <c r="F57" t="n">
+        <v>-0.9040093046930265</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.8978065594660973</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-0.8933397420291939</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-0.8905573244806014</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-0.8893705893385048</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.8896645573778397</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.8913057915276561</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.8941491052538408</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.8980432178465966</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-0.9028354488586142</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-0.9083755464350454</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-0.9145187404581793</v>
+      </c>
+      <c r="R57" t="n">
+        <v>-0.9211281072989516</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-0.9280763283791169</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-0.9352469199748524</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-0.9425350068202392</v>
+      </c>
+      <c r="V57" t="n">
+        <v>-0.9498477071058884</v>
+      </c>
+      <c r="W57" t="n">
+        <v>-0.9571041914090727</v>
+      </c>
+      <c r="X57" t="n">
+        <v>-0.9642157969472223</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>-0.9711363758580567</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>-0.9778198583995746</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>-0.9842303200029463</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>-0.9903044272040946</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>-0.9960120147360937</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>-1.001381409976844</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>-1.006410457257475</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>-1.011102568041935</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>-1.015465900382022</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>-1.019512502318273</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>-1.023257481694946</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>-1.026718244423803</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>-1.029845224172867</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>-1.032727203519047</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>-1.035384989230514</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>-1.037839442052995</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>-1.040110995795491</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>-1.042219366006536</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>-1.044183306526662</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>-1.046020424986862</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>-1.047747051603276</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>-1.049378155056186</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>-1.050927299307177</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1418,6 +8600,132 @@
       <c r="E58" t="n">
         <v>-1.089970455925503</v>
       </c>
+      <c r="F58" t="n">
+        <v>-1.075749157306815</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1.064250331785024</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-1.055341307336006</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-1.048860013483971</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1.044620189854203</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-1.042419193725217</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-1.042045158261645</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-1.043282895741392</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-1.04591883462749</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-1.049745062830482</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-1.054562559861534</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-1.06018369979525</v>
+      </c>
+      <c r="R58" t="n">
+        <v>-1.066434104660789</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-1.073153924982631</v>
+      </c>
+      <c r="T58" t="n">
+        <v>-1.080198620862571</v>
+      </c>
+      <c r="U58" t="n">
+        <v>-1.087439313306809</v>
+      </c>
+      <c r="V58" t="n">
+        <v>-1.094762771467009</v>
+      </c>
+      <c r="W58" t="n">
+        <v>-1.102071097094237</v>
+      </c>
+      <c r="X58" t="n">
+        <v>-1.10926520560354</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>-1.116283409465282</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>-1.12307119296395</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>-1.129585085505576</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>-1.135759391017966</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>-1.141560185359063</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>-1.147010028096723</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>-1.15210516841085</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>-1.156847877863179</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>-1.161246039002827</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>-1.165312074703698</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>-1.169061965440226</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>-1.172514356238312</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>-1.175626684570474</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>-1.178484109754682</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>-1.181109082616478</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>-1.183524132616382</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>-1.185751363193566</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>-1.187812090331099</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>-1.189726567256592</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>-1.191513775971269</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>-1.19319128014063</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>-1.194775131897623</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>-1.196279825249621</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1435,6 +8743,132 @@
       <c r="E59" t="n">
         <v>-0.8256461503150059</v>
       </c>
+      <c r="F59" t="n">
+        <v>-0.8164609628285709</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.8083868089781421</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.8013968448984394</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.7955061851390497</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-0.7907026586604777</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.7869557901247043</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.7842200400836116</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.7824379281653745</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.7815429078214982</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-0.7814619624020479</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.7821179178672915</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-0.7834314730888311</v>
+      </c>
+      <c r="R59" t="n">
+        <v>-0.7853229545452316</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-0.7877138066309756</v>
+      </c>
+      <c r="T59" t="n">
+        <v>-0.790527832067112</v>
+      </c>
+      <c r="U59" t="n">
+        <v>-0.7936921992336358</v>
+      </c>
+      <c r="V59" t="n">
+        <v>-0.7971382347930261</v>
+      </c>
+      <c r="W59" t="n">
+        <v>-0.8008020208738307</v>
+      </c>
+      <c r="X59" t="n">
+        <v>-0.8045540130526608</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>-0.8084189047376853</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>-0.8123475754477487</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>-0.8162967108714978</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>-0.8201638112916656</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>-0.823919822760185</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>-0.8276090967611385</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>-0.8312076373396672</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>-0.8346962479569741</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>-0.8380601973141626</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>-0.8412888487493051</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>-0.8443752111156815</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>-0.8473154826132328</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>-0.8500455773011775</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>-0.8526321544060397</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>-0.8550777218784229</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>-0.8573867986247397</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>-0.8595651442640371</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>-0.8616194827794093</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>-0.8635572177681758</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>-0.8653861814983015</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>-0.8671144183187853</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>-0.8687500008882103</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>-0.8703008773578333</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1452,6 +8886,132 @@
       <c r="E60" t="n">
         <v>-0.4625104793297314</v>
       </c>
+      <c r="F60" t="n">
+        <v>-0.4488757396722891</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.4373011673844241</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.4277073449315221</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.4199960983719777</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.4140470817755184</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-0.4097252397758206</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-0.4068857724060993</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.4053784619448063</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.4050513892449336</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-0.4057540719389806</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-0.4073400671482284</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-0.409669081117014</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-0.4126086281303285</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-0.4160352808641147</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-0.4198355540051839</v>
+      </c>
+      <c r="U60" t="n">
+        <v>-0.4239064624883656</v>
+      </c>
+      <c r="V60" t="n">
+        <v>-0.4281557949245664</v>
+      </c>
+      <c r="W60" t="n">
+        <v>-0.4325021416487256</v>
+      </c>
+      <c r="X60" t="n">
+        <v>-0.4368692778118155</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>-0.4411983120010067</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>-0.4454377680112825</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>-0.4495460494634279</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>-0.4534721124605516</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>-0.4571842382708841</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>-0.4606843045246369</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>-0.4639609691221364</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>-0.4670089122646487</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>-0.469827738801309</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>-0.4724211543165326</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>-0.4747962085590554</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>-0.4769625984611108</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>-0.4788932087727609</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>-0.4806403365514173</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>-0.4822180756353099</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>-0.4836412350228</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>-0.4849247397091342</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>-0.486083324100419</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>-0.4871312747553407</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>-0.4880822263742757</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>-0.4889490064361348</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>-0.4897435232213935</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>-0.49047669203299</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1469,6 +9029,132 @@
       <c r="E61" t="n">
         <v>0.3755890780239386</v>
       </c>
+      <c r="F61" t="n">
+        <v>0.3774067890472153</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.3790905713895552</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.3806262328419588</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.3819989742599362</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.383199416438865</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.3842235306037426</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.3850719059911962</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.3857490257466012</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.3862625785147868</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.3866228067683449</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.3868418978284377</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.3869334232893569</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.3869118317781421</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.3867919987011512</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.3865888350742717</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.3863169559009895</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.385990407004612</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.3856224478441611</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.3852383966721432</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.3848351591587417</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.3844233666176123</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.3840121818649427</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0.3836223036027953</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.383260141671507</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.3829172178838108</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.3825985267884328</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0.3823078140844012</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0.3820478200543874</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0.3818203960696331</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0.3816266123561293</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0.3814668618118919</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.3813549021220944</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0.3812758157849488</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0.381228527024099</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0.3812117031289675</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.3812237598571656</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>0.3812629356013354</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.3813273531039803</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0.3814150725321435</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>0.3815241367926602</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0.381652609499236</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0.3817986060922056</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1486,6 +9172,132 @@
       <c r="E62" t="n">
         <v>-1.175605825126419</v>
       </c>
+      <c r="F62" t="n">
+        <v>-1.16371204543063</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-1.154311097962466</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-1.147333666008407</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-1.142663590479516</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1.140151118778544</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-1.139620561049366</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-1.140879033571051</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-1.143723944513585</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-1.14794927222331</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-1.153350749141305</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-1.159730055373634</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-1.166898124504035</v>
+      </c>
+      <c r="R62" t="n">
+        <v>-1.17467766044357</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-1.182904959572292</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-1.19143112749909</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-1.200122774553884</v>
+      </c>
+      <c r="V62" t="n">
+        <v>-1.208862268658996</v>
+      </c>
+      <c r="W62" t="n">
+        <v>-1.217547618521654</v>
+      </c>
+      <c r="X62" t="n">
+        <v>-1.226064202062493</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>-1.234360482346656</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>-1.242377077662027</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>-1.250068703841232</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>-1.257355561111586</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>-1.264202982926863</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>-1.270646934469425</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>-1.27668301777875</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>-1.282314795794766</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>-1.287551894365301</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>-1.292408786067406</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>-1.29690373108804</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>-1.301057825574202</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>-1.304813864573266</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>-1.308276667134821</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>-1.31147162810598</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>-1.314423962861248</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>-1.317158411512016</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>-1.319698836095637</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>-1.322067919225683</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>-1.324286938361931</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>-1.326375606074365</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>-1.328351968445315</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>-1.330232353865488</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1503,6 +9315,132 @@
       <c r="E63" t="n">
         <v>-0.6907529314314147</v>
       </c>
+      <c r="F63" t="n">
+        <v>-0.6701711635080494</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.6515009301180925</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.6347156848727811</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-0.619813149206343</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.6067618215447941</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.595506931496286</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.5859743479907368</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.5780741194245183</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.5717038917940819</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-0.5667521180567732</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-0.5631010220403485</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-0.5606292914091283</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-0.5592144836933726</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-0.5587351375835879</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-0.5590725887553454</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-0.5601124955611931</v>
+      </c>
+      <c r="V63" t="n">
+        <v>-0.5617460850496214</v>
+      </c>
+      <c r="W63" t="n">
+        <v>-0.5638711339665546</v>
+      </c>
+      <c r="X63" t="n">
+        <v>-0.5663494694727932</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>-0.5691465554280783</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>-0.5721799885970705</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>-0.575376606569875</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>-0.5786308245198718</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>-0.5818914741031573</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>-0.5851575781717328</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>-0.5883849560199994</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>-0.5915379082003785</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>-0.594588092446701</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>-0.5975136964074526</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>-0.6002987465117435</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>-0.6029324232301457</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>-0.6053671062488499</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>-0.6076438890557704</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>-0.6097624246565537</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>-0.6117258666761651</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>-0.6135396199745814</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>-0.6152108258611459</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>-0.6167479170717796</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>-0.61816022250402</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>-0.6194576234126949</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>-0.6206502588418188</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>-0.6217482776752099</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1520,6 +9458,132 @@
       <c r="E64" t="n">
         <v>-0.8861271737601786</v>
       </c>
+      <c r="F64" t="n">
+        <v>-0.8782602725374435</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.8706031368023522</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.8634053299340139</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-0.8568897116809161</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-0.851215875755111</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.8464890796136099</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-0.8427690381756225</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.8400775322772522</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.8384053079150668</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-0.8377182563263518</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-0.8379629048713424</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-0.8390712544423106</v>
+      </c>
+      <c r="R64" t="n">
+        <v>-0.8409650018442509</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-0.8435591870902263</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-0.8467653062647802</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-0.8504939308616751</v>
+      </c>
+      <c r="V64" t="n">
+        <v>-0.8546568744404871</v>
+      </c>
+      <c r="W64" t="n">
+        <v>-0.8591689471151572</v>
+      </c>
+      <c r="X64" t="n">
+        <v>-0.8639038027513186</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>-0.8688338651466087</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>-0.8738889983942734</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>-0.8790053100592005</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>-0.8840751239629518</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>-0.889045927183628</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>-0.8939322732735347</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>-0.8986977854626582</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>-0.9033129773731874</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>-0.9077550134597118</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>-0.9120070160162145</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>-0.9160574741414238</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>-0.9198996380024329</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>-0.923460645748077</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>-0.9268131583340775</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>-0.9299605836697704</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>-0.9329093296027643</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>-0.9356678138076431</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>-0.9382459583239071</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>-0.9406547676295982</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>-0.9429059514868068</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>-0.9450115959780011</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>-0.946983881423055</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>-0.9488348451952178</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1537,6 +9601,132 @@
       <c r="E65" t="n">
         <v>-0.07847085563867517</v>
       </c>
+      <c r="F65" t="n">
+        <v>-0.06583277604786399</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.05514540565713236</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.04628465084177737</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.0391231515658724</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.03352446228289786</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.02934750426217642</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.02644938903470263</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.02468794398259216</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.0239238797090284</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-0.02402261275311111</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.02485576286340354</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-0.02630234446462874</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-0.02824967303628028</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-0.03059400841861001</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-0.03324095841161558</v>
+      </c>
+      <c r="U65" t="n">
+        <v>-0.03610566722078851</v>
+      </c>
+      <c r="V65" t="n">
+        <v>-0.03911281414418996</v>
+      </c>
+      <c r="W65" t="n">
+        <v>-0.04219644826542836</v>
+      </c>
+      <c r="X65" t="n">
+        <v>-0.04528862100302052</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>-0.04835164277441101</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>-0.05134354707645485</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>-0.05423154314631466</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>-0.05697141330133836</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>-0.0595409870851655</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>-0.06194709205047039</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>-0.06418038762428932</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>-0.06623701733454875</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>-0.06811707863857358</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>-0.06982389477165096</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>-0.07136338931426814</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>-0.07274352039680614</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>-0.07394350438994647</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>-0.07500472925968696</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>-0.07593830674919499</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>-0.07675588456094312</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>-0.07746915704929574</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>-0.07808962248176685</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>-0.07862838412622099</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>-0.07909599530401046</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>-0.07950234329041163</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>-0.07985656753471485</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>-0.08016700784723678</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1554,6 +9744,132 @@
       <c r="E66" t="n">
         <v>-0.7527461196382904</v>
       </c>
+      <c r="F66" t="n">
+        <v>-0.7398929806030131</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-0.7301397649542027</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-0.7232569579514101</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-0.7189705171401208</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-0.7170028657399096</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-0.7170750672764189</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.7189126462489818</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.7222502726227372</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.7268354590392184</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-0.732431387421593</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-0.7388189614536195</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-0.7457981781526409</v>
+      </c>
+      <c r="R66" t="n">
+        <v>-0.7531889066418084</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-0.7608311572232183</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-0.7685849189227021</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-0.7763296386790336</v>
+      </c>
+      <c r="V66" t="n">
+        <v>-0.7839634101654258</v>
+      </c>
+      <c r="W66" t="n">
+        <v>-0.7914019347982362</v>
+      </c>
+      <c r="X66" t="n">
+        <v>-0.7985749755162478</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>-0.8054213277932104</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>-0.8119024740982678</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>-0.8179925080645831</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>-0.8236539191032688</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>-0.8288682571645457</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>-0.8336612596243259</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>-0.8380440299117023</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>-0.8420333450739789</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>-0.8456502476131438</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>-0.8489188622893101</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>-0.8518653981188683</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>-0.8545172870290151</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>-0.8568491200889478</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>-0.8589416023351396</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>-0.860822606368482</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>-0.8625184938139615</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>-0.8640541904351785</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>-0.8654529119581249</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>-0.8667360012731733</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>-0.8679228331851049</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>-0.8690307756716648</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>-0.8700751987860348</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>-0.8710695227975093</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1570,6 +9886,132 @@
       </c>
       <c r="E67" t="n">
         <v>-0.7137342127567731</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.6981096896361065</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.6869294915794297</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.6797111690219084</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.6759555701947367</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.6751851058955464</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.6769478006930806</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.680820721372137</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.6864126255257343</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.6933656495624914</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-0.7013561789977585</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-0.7100950105634224</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-0.7193269083377917</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-0.7288296497113849</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-0.7384126510877356</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-0.7479152575059711</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-0.7572047745209821</v>
+      </c>
+      <c r="V67" t="n">
+        <v>-0.7661743144757375</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-0.7747405226764866</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-0.7828388168385343</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-0.7904145187892599</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>-0.7974424772523495</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>-0.8039121833915812</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>-0.8098014340985902</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>-0.8151071785901018</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>-0.8198730998468446</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>-0.8241286855678207</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>-0.8279080251597566</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>-0.831248322791847</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>-0.8341886863324079</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>-0.8367690029016458</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>-0.8390289936898409</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>-0.8409545901147596</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>-0.8426355035605989</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>-0.8441078227508471</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>-0.845404670398177</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>-0.8465564063613145</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>-0.8475905046826417</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>-0.8485314956548812</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>-0.8494009816715126</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>-0.8502177114637646</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>-0.8509977010497712</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>-0.8517543906716118</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_variables_matrix_7.xlsx
+++ b/PCAstatic/PCAstatic_predicted_variables_matrix_7.xlsx
@@ -443,530 +443,530 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.3165817884958826</v>
+        <v>-0.2284251930106784</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3239797079110615</v>
+        <v>-0.2967888709891913</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2127931825542373</v>
+        <v>-0.4469015492332341</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1981554373629975</v>
+        <v>-0.3722525676687918</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1523067820375209</v>
+        <v>-0.4983976858413451</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1314601668315417</v>
+        <v>-0.4564351877563689</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.05799901015146319</v>
+        <v>-0.1813275904551974</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.08508118290404185</v>
+        <v>-0.2510303337085292</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1430107088128128</v>
+        <v>-0.1078699190517744</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1290175634373698</v>
+        <v>-0.07374793981464868</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.4450065902788197</v>
+        <v>-0.3139736178400281</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4604117615427986</v>
+        <v>-0.3130838343875735</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.3021833486314691</v>
+        <v>-0.4542476608322715</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2705179443644665</v>
+        <v>-0.3667392321583826</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.410515109996306</v>
+        <v>-0.5764054721296614</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4205313625346355</v>
+        <v>-0.451071679381194</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.312416282138553</v>
+        <v>-0.4570153378051203</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3442059006747205</v>
+        <v>-0.2893963266581969</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.2074261218299737</v>
+        <v>-0.3147835371474266</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2473425804904836</v>
+        <v>-0.3468689599866061</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.1082318502464235</v>
+        <v>-0.2520846629583797</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1080640545265616</v>
+        <v>-0.2496038690438355</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.002390944367786699</v>
+        <v>-0.07495191411949118</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.01183244678392301</v>
+        <v>-0.09852808534029117</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.004441678517523667</v>
+        <v>-0.2586701071044651</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01218659616566261</v>
+        <v>-0.2152965127307883</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1347449535761689</v>
+        <v>-0.1327960554417704</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.05830895963806679</v>
+        <v>-0.0555233255892251</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1922434907370233</v>
+        <v>-0.2016531738777369</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2854292822568879</v>
+        <v>-0.1134970949897076</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.5440535190971605</v>
+        <v>0.0507248755516596</v>
       </c>
       <c r="B17" t="n">
-        <v>0.563643104320362</v>
+        <v>0.08864212327035619</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.07749513127521881</v>
+        <v>0.02231279218327246</v>
       </c>
       <c r="B18" t="n">
-        <v>0.04863495344191104</v>
+        <v>0.05244742523126448</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.3936085854269584</v>
+        <v>0.02264860508069205</v>
       </c>
       <c r="B19" t="n">
-        <v>0.382040754536043</v>
+        <v>0.07201500511824852</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1720983292609354</v>
+        <v>-0.1426803062546866</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2360995887169145</v>
+        <v>-0.08365608252347637</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.3674336262835911</v>
+        <v>0.001832450140198352</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4625655148839916</v>
+        <v>-0.002260820833523367</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.308244958821792</v>
+        <v>0.04385340012515025</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3416725059848368</v>
+        <v>0.08970624658895179</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.1033263000667436</v>
+        <v>0.00958210396919619</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.09163552809647665</v>
+        <v>-0.003763551209777873</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.40597987305694</v>
+        <v>0.7428913705920727</v>
       </c>
       <c r="B24" t="n">
-        <v>4.530226679196272</v>
+        <v>0.4680785629790404</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.5138685434614361</v>
+        <v>0.1346709329435499</v>
       </c>
       <c r="B25" t="n">
-        <v>0.503412429321434</v>
+        <v>0.09984087960343202</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.4403430256536031</v>
+        <v>0.1488423357615828</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3995170796106945</v>
+        <v>0.1262174956951582</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.3079186363970094</v>
+        <v>0.1025616484351533</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3194240927227214</v>
+        <v>0.1057669124612187</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.129351873434166</v>
+        <v>0.2978012923186618</v>
       </c>
       <c r="B28" t="n">
-        <v>1.099008734566795</v>
+        <v>0.1851373332493673</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6.265754926155919</v>
+        <v>0.5906152606982914</v>
       </c>
       <c r="B29" t="n">
-        <v>5.842635170195364</v>
+        <v>0.4366897020614007</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.008596251896746</v>
+        <v>0.2002340132746654</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9901153388927074</v>
+        <v>0.1584721919085383</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.1233675348865726</v>
+        <v>0.03130360850373778</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.1661487883585251</v>
+        <v>0.04468642127364313</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.8415133716708552</v>
+        <v>0.1674713776037662</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8213669964016488</v>
+        <v>0.1595731720175858</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9032013510495921</v>
+        <v>0.1161762991652851</v>
       </c>
       <c r="B33" t="n">
-        <v>0.931716483315402</v>
+        <v>0.1236571700616717</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.6251493983939314</v>
+        <v>0.0888898558937936</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.6374160022790598</v>
+        <v>0.04679928511983077</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.84241744047656</v>
+        <v>0.3944325809350583</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8229529797785092</v>
+        <v>0.2473692192173735</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8035489632270789</v>
+        <v>0.2674924660596164</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7854012717963574</v>
+        <v>0.1520253477052812</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.7881458898525024</v>
+        <v>0.05784083406433961</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7599720416278469</v>
+        <v>-0.02781341723712331</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.7849657698693027</v>
+        <v>0.3390131524289273</v>
       </c>
       <c r="B38" t="n">
-        <v>0.736573011468253</v>
+        <v>0.2830760980638577</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.5851977140947976</v>
+        <v>-0.07494543898053001</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5855179170203317</v>
+        <v>-0.1531292119110962</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.7548741819551616</v>
+        <v>0.143608073768983</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7561448125044548</v>
+        <v>0.1192788593122581</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.5827451112506821</v>
+        <v>-0.08858301808009007</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5624201316739293</v>
+        <v>-0.09097986344485864</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.7558432837800615</v>
+        <v>0.2432095778084683</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7178678997850312</v>
+        <v>0.2135249573035481</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.7512321127686247</v>
+        <v>0.1950877439158334</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7235929828138905</v>
+        <v>0.1589057977283416</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.6823476891995214</v>
+        <v>-0.1386979563161148</v>
       </c>
       <c r="B44" t="n">
-        <v>0.682510958967441</v>
+        <v>-0.1264751840052568</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.6796279978605106</v>
+        <v>-0.09664984838546742</v>
       </c>
       <c r="B45" t="n">
-        <v>0.676895140647332</v>
+        <v>-0.08678370139580865</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1.244490144652158</v>
+        <v>-0.1909639682916044</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.258761971176776</v>
+        <v>-0.1841821144824458</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.9610372873181348</v>
+        <v>-0.1889263992401033</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.973519410757964</v>
+        <v>-0.1838654952451159</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.8519910124597871</v>
+        <v>-0.2258465568638412</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8661238370075555</v>
+        <v>-0.202416989260823</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.6244334835048058</v>
+        <v>-0.2210150296816591</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6378250778421266</v>
+        <v>-0.2054858845883491</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.04645091009453547</v>
+        <v>-0.1560748696515911</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.0466675888936337</v>
+        <v>-0.1476729823843906</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.8439663432109931</v>
+        <v>-0.2108860185844686</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.8589558841379439</v>
+        <v>-0.2235325144355253</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.8439663432109931</v>
+        <v>-0.2108860185844686</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8589558841379439</v>
+        <v>-0.2235325144355253</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-1.059062668450738</v>
+        <v>-0.2005197532415103</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.083177447783509</v>
+        <v>-0.1815900061744462</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.1860876489358954</v>
+        <v>-0.2031879920793391</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1866984525573208</v>
+        <v>-0.1978903840412476</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.9823186209134837</v>
+        <v>-0.1714539397845141</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.993625540527033</v>
+        <v>-0.1535962099403553</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.8969178881665509</v>
+        <v>-0.1576589899662995</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.8870497724212896</v>
+        <v>-0.1597178036589982</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.9811320558683094</v>
+        <v>-0.2042248442595974</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9455164010686488</v>
+        <v>-0.168746685201611</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-1.19885088546763</v>
+        <v>-0.1778661348900057</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.149612609280108</v>
+        <v>-0.2090549265717036</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.8863618361961845</v>
+        <v>-0.2148054960014503</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.8587207998944131</v>
+        <v>-0.2226689262470279</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.5485449275250009</v>
+        <v>-0.2057805845484927</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.5160229371395958</v>
+        <v>-0.2232261971984989</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.3638639548426356</v>
+        <v>-0.248522645007653</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3697546559993954</v>
+        <v>-0.200998863406402</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1.276241857275355</v>
+        <v>-0.1585966567466023</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.225893935686255</v>
+        <v>-0.09287336873661013</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.7993783222717643</v>
+        <v>-0.3427260686486877</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.7629213430980695</v>
+        <v>-0.380050846412912</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.9050957309475451</v>
+        <v>-0.2619670185581776</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9064074911482318</v>
+        <v>-0.2460918741514019</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.166558227372781</v>
+        <v>-0.1909027725969231</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1290046537481677</v>
+        <v>-0.2223802753770208</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.8664416668488926</v>
+        <v>-0.1241820406382222</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.8121577785326778</v>
+        <v>-0.1042468777245117</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.8830592201143106</v>
+        <v>-0.0783207882353454</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.7927760800172408</v>
+        <v>-0.09373137367300126</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_variables_matrix_7.xlsx
+++ b/PCAstatic/PCAstatic_predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,13 +440,115 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-0.2284251930106784</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2967888709891913</v>
+        <v>-20.58416924113043</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1158.799665821433</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-61078.8900461918</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-3867228.802294275</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-249421254.89792</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-15900563189.60919</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-901701508427.3398</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-48037318639673.54</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-2180265879837287</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-7.193349310889168e+16</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-6.111881002032701e+17</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.439557489141227e+20</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.822605960547408e+22</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.737183971157767e+24</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.42042456879109e+26</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.056675999573097e+28</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7.553350539620991e+29</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5.402771298629348e+31</v>
       </c>
     </row>
     <row r="3">
@@ -454,7 +556,58 @@
         <v>-0.4469015492332341</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3722525676687918</v>
+        <v>-40.43517206653505</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2653.066984057892</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-192940.5971097433</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-18461339.06273366</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-1789407351.307367</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-166499357885.2807</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-12754463963621.86</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-831011198321624.2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-2.688251560137029e+16</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.875222804833058e+18</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.005812386113687e+21</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.470621728013706e+23</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.844892593039201e+25</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.223154575709972e+27</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.55409971799386e+29</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.812900349783019e+31</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.037011659646658e+33</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.290198461704334e+35</v>
       </c>
     </row>
     <row r="4">
@@ -462,7 +615,58 @@
         <v>-0.4983976858413451</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.4564351877563689</v>
+        <v>-37.56754777294678</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2437.411860094742</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-194489.5111285813</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-17871165.34236445</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-1650547162.483713</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-149816564750.1367</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-12314994302362.33</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-977499528152814.9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-7.27680810845764e+16</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-4.969648864998498e+18</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-3.212890992585404e+20</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-2.143357108334846e+22</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-1.46386400891705e+24</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-9.300569583458318e+25</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-5.850834568787538e+27</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-4.090249308094165e+29</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-3.174020593971561e+31</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-2.343635434240842e+33</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +674,58 @@
         <v>-0.1813275904551974</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2510303337085292</v>
+        <v>-21.67685372210543</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1481.807552992667</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-120380.6121123958</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-11665580.80150065</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-1162447627.743775</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-115729627116.7174</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-9820465090461.508</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-741535070525721.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-4.713267951605637e+16</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-2.229176291008903e+18</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-3.580409631164901e+19</v>
+      </c>
+      <c r="M5" t="n">
+        <v>7.349655392881616e+21</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.370706141005613e+24</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.832484134901738e+26</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.061843412809736e+28</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.084628036197041e+30</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.014643509426341e+32</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.953484551863384e+34</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +733,58 @@
         <v>-0.1078699190517744</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.07374793981464868</v>
+        <v>3.884783069152889</v>
+      </c>
+      <c r="C6" t="n">
+        <v>637.7822512615295</v>
+      </c>
+      <c r="D6" t="n">
+        <v>54188.12637810845</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4160408.762960151</v>
+      </c>
+      <c r="F6" t="n">
+        <v>278618340.2204335</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11564927670.50784</v>
+      </c>
+      <c r="H6" t="n">
+        <v>559165613174.2544</v>
+      </c>
+      <c r="I6" t="n">
+        <v>89867266213383.34</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.916251600252254e+16</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.104506822093246e+18</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.424144270109818e+20</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5.71059585245424e+22</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.802337207164758e+24</v>
+      </c>
+      <c r="O6" t="n">
+        <v>7.741050514565234e+26</v>
+      </c>
+      <c r="P6" t="n">
+        <v>8.35738459912249e+28</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>8.618155119818274e+30</v>
+      </c>
+      <c r="R6" t="n">
+        <v>8.702729353438727e+32</v>
+      </c>
+      <c r="S6" t="n">
+        <v>8.818851781634199e+34</v>
       </c>
     </row>
     <row r="7">
@@ -486,7 +792,58 @@
         <v>-0.3139736178400281</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.3130838343875735</v>
+        <v>-17.63179914212014</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-835.0696562076548</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-44011.76162141556</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-2828476.975989078</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-190361651.7705565</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-12865799216.8296</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-738212420752.2885</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-37386475664058.95</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1624790372139788</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-5.468764594583033e+16</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-9.660162795316664e+17</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.804550221014847e+19</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.57670590304539e+21</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6.456831777847773e+23</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5.119103347433145e+25</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.610955099913928e+27</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.428166166046277e+29</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.632235747491482e+31</v>
       </c>
     </row>
     <row r="8">
@@ -494,7 +851,58 @@
         <v>-0.4542476608322715</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.3667392321583826</v>
+        <v>-26.01984935231964</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1507.057158756913</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-97965.66229862851</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-7403017.225194897</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-556830419.7582624</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-40752524227.04218</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-2745950833036.156</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-184153294871118</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-1.148777400898998e+16</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-6.424686590615555e+17</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-3.298027521274441e+19</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-1.707986493558099e+21</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-8.684849741973883e+22</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-3.283925666544941e+24</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-2.751405036224957e+25</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.139778872989283e+28</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.772349748265469e+30</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.100004474308044e+32</v>
       </c>
     </row>
     <row r="9">
@@ -502,7 +910,58 @@
         <v>-0.5764054721296614</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.451071679381194</v>
+        <v>-25.19029548709113</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1287.567759808639</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-71849.03444887699</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-4671694.037638681</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-305173710.1600589</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-19437643598.1491</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-1093834027100.795</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-57632627807447.7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-2635289652688616</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-8.898859748310058e+16</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-8.969332169866291e+17</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.729570453669194e+20</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.302006508672493e+22</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.230980688366259e+24</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.835348234492286e+26</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.366313942211553e+28</v>
+      </c>
+      <c r="R9" t="n">
+        <v>9.750453114164529e+29</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6.970129958063028e+31</v>
       </c>
     </row>
     <row r="10">
@@ -510,7 +969,58 @@
         <v>-0.4570153378051203</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.2893963266581969</v>
+        <v>-47.34986255003885</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-4037.101332763125</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-346159.0712887574</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-38413698.71918636</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-4316114740.130535</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-471162426706.458</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-46377294342940.44</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-4457407822227716</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-3.920676677406079e+17</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-2.897950836395323e+19</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-1.568084329820276e+21</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-2.172898263834884e+22</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.230249975147281e+25</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.979520079697535e+27</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.68577716088034e+29</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6.043024227872888e+31</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7.170053793229202e+33</v>
+      </c>
+      <c r="S10" t="n">
+        <v>8.562570975876025e+35</v>
       </c>
     </row>
     <row r="11">
@@ -518,7 +1028,58 @@
         <v>-0.3147835371474266</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.3468689599866061</v>
+        <v>-21.22081067610787</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1023.964957177563</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-61165.3443705794</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-4280682.272764908</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-304518823.8037374</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-21386818831.30377</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-1304184777094.432</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-71944754700745.88</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-3516107627359044</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-1.433094958748886e+17</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-4.474899586252948e+18</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-8.84472295480395e+19</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.315647590937062e+21</v>
+      </c>
+      <c r="O11" t="n">
+        <v>7.882423431193173e+23</v>
+      </c>
+      <c r="P11" t="n">
+        <v>8.172994713060333e+25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>6.71704072034515e+27</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5.089532726765664e+29</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.831410548826388e+31</v>
       </c>
     </row>
     <row r="12">
@@ -526,7 +1087,58 @@
         <v>-0.2520846629583797</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.2496038690438355</v>
+        <v>-21.72216923348251</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1014.612227740519</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-54614.00428661574</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-3677205.629575295</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-252629933.0107668</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-17092063019.7541</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-977274573911.021</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-48882030608766.62</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1853971239972046</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-2.141883918173203e+16</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.623748724777912e+18</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5.938721582922124e+20</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5.38415794492933e+22</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4.466658622545278e+24</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.419763802323282e+26</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.459540245900782e+28</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.719505765383873e+30</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.20658402713257e+32</v>
       </c>
     </row>
     <row r="13">
@@ -534,7 +1146,58 @@
         <v>-0.07495191411949118</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.09852808534029117</v>
+        <v>-6.027296804807739</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-670.1208347146572</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-71225.62609707395</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-6544963.629982011</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-584604925.6586921</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-50528886789.7387</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-3646504317599.15</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-235288755269116.1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-1.343552554470845e+16</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-6.165988564086487e+17</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-1.818743676085663e+19</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.308434552897625e+20</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9.300615200923951e+22</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.35339232061926e+25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.455133522080143e+27</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.352781984499085e+29</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.188944043137275e+31</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.043252905579842e+33</v>
       </c>
     </row>
     <row r="14">
@@ -542,7 +1205,58 @@
         <v>-0.2586701071044651</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.2152965127307883</v>
+        <v>-15.3588598795701</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-696.1560778599186</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-39660.15751684325</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-2409523.142800733</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-141754332.7573562</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-7737141516.620571</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-321067579130.4885</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-10006220257244.88</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-17371832611817.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.869036877663048e+16</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.740099663137327e+18</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4.175217775321497e+20</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.256803391089177e+22</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.391841683149946e+24</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.648801738404085e+26</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.077575124706344e+28</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6.864707253412363e+29</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4.389505697955152e+31</v>
       </c>
     </row>
     <row r="15">
@@ -550,7 +1264,58 @@
         <v>-0.1327960554417704</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0555233255892251</v>
+        <v>-7.322389957236078</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-349.9129573355993</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-17330.31372557916</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-862887.8892880294</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-41992848.63817982</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-1933837784.50075</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-66819504533.02209</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-1648252372672.209</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5121329860598.391</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4760921453864272</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.397914709592236e+17</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.980316514712325e+19</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.802258753155215e+21</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.036300078871708e+23</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5.637909804700114e+24</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.925712983327114e+26</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.484737941802651e+28</v>
+      </c>
+      <c r="S15" t="n">
+        <v>7.561966058997344e+29</v>
       </c>
     </row>
     <row r="16">
@@ -558,7 +1323,58 @@
         <v>-0.2016531738777369</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1134970949897076</v>
+        <v>-9.843626134701323</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-423.2607498955053</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-19413.44365451607</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-898033.7716949438</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-37617490.98011616</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-1319199910.358747</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-34904815730.31276</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-626746872534.9783</v>
+      </c>
+      <c r="J16" t="n">
+        <v>17046151112878.77</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3156863906386030</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.648434799055732e+17</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.798848420986595e+19</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.101896583232938e+21</v>
+      </c>
+      <c r="O16" t="n">
+        <v>6.287137068176674e+22</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.336433105415025e+24</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.665629685423087e+26</v>
+      </c>
+      <c r="R16" t="n">
+        <v>8.065340794221414e+27</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.919061070028145e+29</v>
       </c>
     </row>
     <row r="17">
@@ -566,7 +1382,58 @@
         <v>0.0507248755516596</v>
       </c>
       <c r="B17" t="n">
-        <v>0.08864212327035619</v>
+        <v>-2.137465456623423</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-11.87485230338866</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3229.056174816695</v>
+      </c>
+      <c r="E17" t="n">
+        <v>261869.2399170896</v>
+      </c>
+      <c r="F17" t="n">
+        <v>18167457.75897409</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1190737563.810447</v>
+      </c>
+      <c r="H17" t="n">
+        <v>75758718640.30795</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4286311877446.165</v>
+      </c>
+      <c r="J17" t="n">
+        <v>226591815733226.8</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.162409367655217e+16</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5.80029466004254e+17</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.824193082169359e+19</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.352841223763484e+21</v>
+      </c>
+      <c r="O17" t="n">
+        <v>6.456480322676287e+22</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.072509281615292e+24</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.460012931561953e+26</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6.944251873049571e+27</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.308556416423844e+29</v>
       </c>
     </row>
     <row r="18">
@@ -574,7 +1441,58 @@
         <v>0.02231279218327246</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05244742523126448</v>
+        <v>-2.128627421578285</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-249.5958720963482</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-10296.19064509311</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-421105.1464296293</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-14972092.27761652</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-223825978.7568731</v>
+      </c>
+      <c r="H18" t="n">
+        <v>82606335360.8528</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10584512319785.56</v>
+      </c>
+      <c r="J18" t="n">
+        <v>951821000017672.2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>7.478897636730323e+16</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5.22462432442644e+18</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3.303687341943207e+20</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.992105052612246e+22</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.20081193946732e+24</v>
+      </c>
+      <c r="P18" t="n">
+        <v>7.237783405166245e+25</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4.364732439021044e+27</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.638558215481012e+29</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.598733077633594e+31</v>
       </c>
     </row>
     <row r="19">
@@ -582,7 +1500,58 @@
         <v>0.02264860508069205</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07201500511824852</v>
+        <v>0.8862811387473131</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-26.57041003394377</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-4478.500779959148</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-425051.0609939534</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-37334524.94183575</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-3014609851.617022</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-162245434059.8298</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-6064165922956.012</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-87130136798859.19</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.054043411752391e+16</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.37151967358468e+18</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.085708887216703e+20</v>
+      </c>
+      <c r="N19" t="n">
+        <v>7.402315832659569e+21</v>
+      </c>
+      <c r="O19" t="n">
+        <v>4.82588022478093e+23</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.983560419229254e+25</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.759274183316933e+27</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.014257256098521e+29</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5.867439810783545e+30</v>
       </c>
     </row>
     <row r="20">
@@ -590,7 +1559,58 @@
         <v>-0.1426803062546866</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.08365608252347637</v>
+        <v>-7.589343130754677</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-309.4995985920534</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-13714.3090958099</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-584944.194369936</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-23370550.38222831</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-823120792.5996041</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-19965606490.43389</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-291500242501.0479</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8130550106590.984</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1334460556386531</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.018645328076231e+17</v>
+      </c>
+      <c r="M20" t="n">
+        <v>6.260868087346531e+18</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.467705033611368e+20</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.806883843384369e+22</v>
+      </c>
+      <c r="P20" t="n">
+        <v>8.822147497058675e+23</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4.075043443805626e+25</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.832381601581576e+27</v>
+      </c>
+      <c r="S20" t="n">
+        <v>8.269731794795086e+28</v>
       </c>
     </row>
     <row r="21">
@@ -598,7 +1618,58 @@
         <v>0.001832450140198352</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.002260820833523367</v>
+        <v>-10.0748355171832</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-545.2115985361664</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-33910.8133163712</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-2075308.698112423</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-112954567.9170338</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-5105881277.096858</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-189105623351.1833</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-6681082021816.123</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-129747036981317.9</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.140230120262785e+16</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.142229277019086e+18</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2.368178695925036e+20</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.126903643226377e+22</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.673321729143898e+24</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.179447334524165e+26</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>7.629947716485757e+27</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4.72842211570066e+29</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.940923594457905e+31</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +1677,58 @@
         <v>0.04385340012515025</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08970624658895179</v>
+        <v>1.340299286457118</v>
+      </c>
+      <c r="C22" t="n">
+        <v>195.8919210172753</v>
+      </c>
+      <c r="D22" t="n">
+        <v>14008.56220180217</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1007540.897289182</v>
+      </c>
+      <c r="F22" t="n">
+        <v>75775323.71309869</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5835689286.474391</v>
+      </c>
+      <c r="H22" t="n">
+        <v>474272241853.7548</v>
+      </c>
+      <c r="I22" t="n">
+        <v>35222253300751.95</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2489709605950702</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.737031304882629e+17</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.219523806618473e+19</v>
+      </c>
+      <c r="M22" t="n">
+        <v>8.617007834188842e+20</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6.002254489837062e+22</v>
+      </c>
+      <c r="O22" t="n">
+        <v>4.106493598827021e+24</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.736901947322963e+26</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.778226584803704e+28</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.141537213646453e+30</v>
+      </c>
+      <c r="S22" t="n">
+        <v>7.348390033979976e+31</v>
       </c>
     </row>
     <row r="23">
@@ -614,7 +1736,58 @@
         <v>0.00958210396919619</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.003763551209777873</v>
+        <v>-5.03215648207172</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-221.8749558924141</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-17353.13467586277</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1155498.926007547</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-73384617.39181632</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-4264334955.497596</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-111914746146.0414</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4409383307321.633</v>
+      </c>
+      <c r="J23" t="n">
+        <v>999077124891221.2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.119935965007641e+17</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.002368229254996e+19</v>
+      </c>
+      <c r="M23" t="n">
+        <v>7.903535598549847e+20</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5.84260589121964e+22</v>
+      </c>
+      <c r="O23" t="n">
+        <v>4.197285986469899e+24</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.90798984123102e+26</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.949905837639677e+28</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.288003867588969e+30</v>
+      </c>
+      <c r="S23" t="n">
+        <v>8.53536118610031e+31</v>
       </c>
     </row>
     <row r="24">
@@ -622,7 +1795,58 @@
         <v>0.7428913705920727</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4680785629790404</v>
+        <v>1.216260668797262</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.9050708495439</v>
+      </c>
+      <c r="D24" t="n">
+        <v>42.17912247946116</v>
+      </c>
+      <c r="E24" t="n">
+        <v>267.322301827653</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1626.636033266085</v>
+      </c>
+      <c r="G24" t="n">
+        <v>9203.037279459128</v>
+      </c>
+      <c r="H24" t="n">
+        <v>50132.6702602021</v>
+      </c>
+      <c r="I24" t="n">
+        <v>293349.8292722532</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1604099.003920245</v>
+      </c>
+      <c r="K24" t="n">
+        <v>7600672.204171734</v>
+      </c>
+      <c r="L24" t="n">
+        <v>33686986.21873279</v>
+      </c>
+      <c r="M24" t="n">
+        <v>170653637.0782554</v>
+      </c>
+      <c r="N24" t="n">
+        <v>900799245.1896696</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3702547687.93438</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2549367003.61676</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-182266210023.7515</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-2831983409740.475</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-31116322218746.11</v>
       </c>
     </row>
     <row r="25">
@@ -630,7 +1854,58 @@
         <v>0.1346709329435499</v>
       </c>
       <c r="B25" t="n">
-        <v>0.09984087960343202</v>
+        <v>2.18477327154451</v>
+      </c>
+      <c r="C25" t="n">
+        <v>33.50891037748787</v>
+      </c>
+      <c r="D25" t="n">
+        <v>716.5525816532822</v>
+      </c>
+      <c r="E25" t="n">
+        <v>16802.42669342021</v>
+      </c>
+      <c r="F25" t="n">
+        <v>392339.9664081555</v>
+      </c>
+      <c r="G25" t="n">
+        <v>9027475.277028266</v>
+      </c>
+      <c r="H25" t="n">
+        <v>199542108.9450251</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4322248563.606411</v>
+      </c>
+      <c r="J25" t="n">
+        <v>91496666008.36658</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1904102731419.312</v>
+      </c>
+      <c r="L25" t="n">
+        <v>39307955916797.65</v>
+      </c>
+      <c r="M25" t="n">
+        <v>813470952802751.1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.692074395968659e+16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3.575047575387027e+17</v>
+      </c>
+      <c r="P25" t="n">
+        <v>7.850300238336507e+18</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.802342849565276e+20</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4.240099028531308e+21</v>
+      </c>
+      <c r="S25" t="n">
+        <v>9.969498171867719e+22</v>
       </c>
     </row>
     <row r="26">
@@ -638,7 +1913,58 @@
         <v>0.1488423357615828</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1262174956951582</v>
+        <v>2.196605069700019</v>
+      </c>
+      <c r="C26" t="n">
+        <v>29.90158526224569</v>
+      </c>
+      <c r="D26" t="n">
+        <v>466.8082573654839</v>
+      </c>
+      <c r="E26" t="n">
+        <v>8243.217213164226</v>
+      </c>
+      <c r="F26" t="n">
+        <v>144131.8982059477</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2443855.039839699</v>
+      </c>
+      <c r="H26" t="n">
+        <v>42894879.34197651</v>
+      </c>
+      <c r="I26" t="n">
+        <v>796159564.288882</v>
+      </c>
+      <c r="J26" t="n">
+        <v>15048492432.37845</v>
+      </c>
+      <c r="K26" t="n">
+        <v>282308716689.3321</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5213098169872.111</v>
+      </c>
+      <c r="M26" t="n">
+        <v>94275486553265.56</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1687902818761858</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3.061718428355072e+16</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5.687412538060374e+17</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.082907858699016e+19</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.090164024215548e+20</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4.034281528651632e+21</v>
       </c>
     </row>
     <row r="27">
@@ -646,7 +1972,58 @@
         <v>0.1025616484351533</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1057669124612187</v>
+        <v>1.85025925572112</v>
+      </c>
+      <c r="C27" t="n">
+        <v>24.07006929983718</v>
+      </c>
+      <c r="D27" t="n">
+        <v>339.4246121661605</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5319.54954841888</v>
+      </c>
+      <c r="F27" t="n">
+        <v>83015.56675929492</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1272787.010108438</v>
+      </c>
+      <c r="H27" t="n">
+        <v>19618082.53812912</v>
+      </c>
+      <c r="I27" t="n">
+        <v>310187907.8576437</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4894205471.882645</v>
+      </c>
+      <c r="K27" t="n">
+        <v>76852375317.55409</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1209354092569.284</v>
+      </c>
+      <c r="M27" t="n">
+        <v>19155416421114.98</v>
+      </c>
+      <c r="N27" t="n">
+        <v>305081431393528.9</v>
+      </c>
+      <c r="O27" t="n">
+        <v>4910986771786884</v>
+      </c>
+      <c r="P27" t="n">
+        <v>8.047567112751544e+16</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.342426745183543e+18</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.260418102177967e+19</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.80557310669837e+20</v>
       </c>
     </row>
     <row r="28">
@@ -654,7 +2031,58 @@
         <v>0.2978012923186618</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1851373332493673</v>
+        <v>2.421270407858806</v>
+      </c>
+      <c r="C28" t="n">
+        <v>36.04786887325855</v>
+      </c>
+      <c r="D28" t="n">
+        <v>613.4244987639285</v>
+      </c>
+      <c r="E28" t="n">
+        <v>11033.52100831772</v>
+      </c>
+      <c r="F28" t="n">
+        <v>191619.1312465579</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3174063.611633011</v>
+      </c>
+      <c r="H28" t="n">
+        <v>49520021.2135395</v>
+      </c>
+      <c r="I28" t="n">
+        <v>762663690.6497803</v>
+      </c>
+      <c r="J28" t="n">
+        <v>10671976845.31101</v>
+      </c>
+      <c r="K28" t="n">
+        <v>132845618169.1181</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1493254453028.309</v>
+      </c>
+      <c r="M28" t="n">
+        <v>16750157826114.59</v>
+      </c>
+      <c r="N28" t="n">
+        <v>180873971861195.3</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1327305418460950</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-97928907392624</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>-2.093412923189458e+17</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-5.289734482435088e+18</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-1.261651062454564e+20</v>
       </c>
     </row>
     <row r="29">
@@ -662,7 +2090,58 @@
         <v>0.5906152606982914</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4366897020614007</v>
+        <v>1.522738886167233</v>
+      </c>
+      <c r="C29" t="n">
+        <v>8.644926658382049</v>
+      </c>
+      <c r="D29" t="n">
+        <v>57.76340248366132</v>
+      </c>
+      <c r="E29" t="n">
+        <v>398.4840201844618</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2610.913194484363</v>
+      </c>
+      <c r="G29" t="n">
+        <v>16085.0053989749</v>
+      </c>
+      <c r="H29" t="n">
+        <v>100691.6212943951</v>
+      </c>
+      <c r="I29" t="n">
+        <v>667326.7162433236</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4221482.164133128</v>
+      </c>
+      <c r="K29" t="n">
+        <v>25119728.50165143</v>
+      </c>
+      <c r="L29" t="n">
+        <v>140506488.3759335</v>
+      </c>
+      <c r="M29" t="n">
+        <v>732560937.2922734</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3357016589.729124</v>
+      </c>
+      <c r="O29" t="n">
+        <v>11830425510.72192</v>
+      </c>
+      <c r="P29" t="n">
+        <v>15540559752.66272</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-243946405852.8696</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-3713432344312.781</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-40566134907345.36</v>
       </c>
     </row>
     <row r="30">
@@ -670,7 +2149,58 @@
         <v>0.2002340132746654</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1584721919085383</v>
+        <v>1.909650047590766</v>
+      </c>
+      <c r="C30" t="n">
+        <v>18.44400266818212</v>
+      </c>
+      <c r="D30" t="n">
+        <v>244.0180186224911</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3789.334752347999</v>
+      </c>
+      <c r="F30" t="n">
+        <v>58010.6816453381</v>
+      </c>
+      <c r="G30" t="n">
+        <v>860388.7576822595</v>
+      </c>
+      <c r="H30" t="n">
+        <v>12714458.69386646</v>
+      </c>
+      <c r="I30" t="n">
+        <v>197459365.32822</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3038208049.813387</v>
+      </c>
+      <c r="K30" t="n">
+        <v>45189532370.06744</v>
+      </c>
+      <c r="L30" t="n">
+        <v>644051547070.236</v>
+      </c>
+      <c r="M30" t="n">
+        <v>8733176896847.102</v>
+      </c>
+      <c r="N30" t="n">
+        <v>113667987031348.1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1463824500886484</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.973220320181295e+16</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.914515920554161e+17</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4.58943983323038e+18</v>
+      </c>
+      <c r="S30" t="n">
+        <v>7.216146348265978e+19</v>
       </c>
     </row>
     <row r="31">
@@ -678,7 +2208,58 @@
         <v>0.03130360850373778</v>
       </c>
       <c r="B31" t="n">
-        <v>0.04468642127364313</v>
+        <v>1.417432023028101</v>
+      </c>
+      <c r="C31" t="n">
+        <v>16.77147510828133</v>
+      </c>
+      <c r="D31" t="n">
+        <v>226.6767372172883</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3496.665387838691</v>
+      </c>
+      <c r="F31" t="n">
+        <v>53823.31793996658</v>
+      </c>
+      <c r="G31" t="n">
+        <v>819593.1526044903</v>
+      </c>
+      <c r="H31" t="n">
+        <v>13485293.5318682</v>
+      </c>
+      <c r="I31" t="n">
+        <v>232681059.8696247</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4042195364.705194</v>
+      </c>
+      <c r="K31" t="n">
+        <v>69410159794.44341</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1157786813362.445</v>
+      </c>
+      <c r="M31" t="n">
+        <v>18668518458372</v>
+      </c>
+      <c r="N31" t="n">
+        <v>297198062262374.2</v>
+      </c>
+      <c r="O31" t="n">
+        <v>4774379507798962</v>
+      </c>
+      <c r="P31" t="n">
+        <v>7.772577138118864e+16</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.280984147860913e+18</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.123501452592075e+19</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.516504592468975e+20</v>
       </c>
     </row>
     <row r="32">
@@ -686,7 +2267,58 @@
         <v>0.1674713776037662</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1595731720175858</v>
+        <v>2.764411546149014</v>
+      </c>
+      <c r="C32" t="n">
+        <v>50.78497564167078</v>
+      </c>
+      <c r="D32" t="n">
+        <v>989.5710625853743</v>
+      </c>
+      <c r="E32" t="n">
+        <v>20345.96144069017</v>
+      </c>
+      <c r="F32" t="n">
+        <v>394638.0055314408</v>
+      </c>
+      <c r="G32" t="n">
+        <v>6960849.009695608</v>
+      </c>
+      <c r="H32" t="n">
+        <v>123392120.3089776</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2510874862.371228</v>
+      </c>
+      <c r="J32" t="n">
+        <v>52438678933.2188</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1070162799941.209</v>
+      </c>
+      <c r="L32" t="n">
+        <v>21362356590279.04</v>
+      </c>
+      <c r="M32" t="n">
+        <v>416701051941864.8</v>
+      </c>
+      <c r="N32" t="n">
+        <v>7970882932639154</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.53982335148689e+17</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.147865752839236e+18</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>6.973134142891439e+19</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.620892973455795e+21</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.763505054917183e+22</v>
       </c>
     </row>
     <row r="33">
@@ -694,7 +2326,58 @@
         <v>0.1161762991652851</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1236571700616717</v>
+        <v>2.508035547026889</v>
+      </c>
+      <c r="C33" t="n">
+        <v>42.90858532969926</v>
+      </c>
+      <c r="D33" t="n">
+        <v>845.9885173260884</v>
+      </c>
+      <c r="E33" t="n">
+        <v>19023.81129042837</v>
+      </c>
+      <c r="F33" t="n">
+        <v>407533.0403310946</v>
+      </c>
+      <c r="G33" t="n">
+        <v>7979255.611691054</v>
+      </c>
+      <c r="H33" t="n">
+        <v>154114916.6087688</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3427294234.516887</v>
+      </c>
+      <c r="J33" t="n">
+        <v>75473779754.7627</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1541173377991.264</v>
+      </c>
+      <c r="L33" t="n">
+        <v>28023004033074.41</v>
+      </c>
+      <c r="M33" t="n">
+        <v>404299671719336</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2623306893555334</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-9.556157630276442e+16</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-5.097064562060661e+18</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-1.590118771594408e+20</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-4.266785199011043e+21</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-1.149947589777066e+23</v>
       </c>
     </row>
     <row r="34">
@@ -702,7 +2385,58 @@
         <v>0.0888898558937936</v>
       </c>
       <c r="B34" t="n">
-        <v>0.04679928511983077</v>
+        <v>2.201423969231013</v>
+      </c>
+      <c r="C34" t="n">
+        <v>36.05709614735356</v>
+      </c>
+      <c r="D34" t="n">
+        <v>660.0889833980607</v>
+      </c>
+      <c r="E34" t="n">
+        <v>13525.20903635535</v>
+      </c>
+      <c r="F34" t="n">
+        <v>268180.5330276377</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5119523.001998224</v>
+      </c>
+      <c r="H34" t="n">
+        <v>120473179.2412694</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3192754294.343596</v>
+      </c>
+      <c r="J34" t="n">
+        <v>85088558109.5517</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2203595602479.542</v>
+      </c>
+      <c r="L34" t="n">
+        <v>54303871786430.22</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1269154009855136</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.897595443168306e+16</v>
+      </c>
+      <c r="O34" t="n">
+        <v>6.647315768463867e+17</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.533604346598609e+19</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3.554059822074402e+20</v>
+      </c>
+      <c r="R34" t="n">
+        <v>8.252004847034264e+21</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.913888879918551e+23</v>
       </c>
     </row>
     <row r="35">
@@ -710,7 +2444,58 @@
         <v>0.3944325809350583</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2473692192173735</v>
+        <v>53.07242552362063</v>
+      </c>
+      <c r="C35" t="n">
+        <v>8564.890874974748</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1426105.572337965</v>
+      </c>
+      <c r="E35" t="n">
+        <v>233984772.4367373</v>
+      </c>
+      <c r="F35" t="n">
+        <v>37380313288.38082</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5621720705610.627</v>
+      </c>
+      <c r="H35" t="n">
+        <v>697550973805846.8</v>
+      </c>
+      <c r="I35" t="n">
+        <v>8.171563808695717e+16</v>
+      </c>
+      <c r="J35" t="n">
+        <v>9.100281600742084e+18</v>
+      </c>
+      <c r="K35" t="n">
+        <v>7.362736351207763e+20</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.055901887184819e+22</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-1.125071202295267e+25</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-3.433363420721378e+27</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-7.948715873917414e+29</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-1.55401470089925e+32</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-2.69828682520682e+34</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-4.424400434202291e+36</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-7.281024839353105e+38</v>
       </c>
     </row>
     <row r="36">
@@ -718,7 +2503,58 @@
         <v>0.2674924660596164</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1520253477052812</v>
+        <v>33.94664310241338</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3736.031331417055</v>
+      </c>
+      <c r="D36" t="n">
+        <v>519990.2676169749</v>
+      </c>
+      <c r="E36" t="n">
+        <v>74869352.14269105</v>
+      </c>
+      <c r="F36" t="n">
+        <v>10562057669.49195</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1409331660781.274</v>
+      </c>
+      <c r="H36" t="n">
+        <v>148978380970497.3</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.354346937065846e+16</v>
+      </c>
+      <c r="J36" t="n">
+        <v>9.217332231650647e+17</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-2.35769802861833e+19</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-2.505733046992264e+22</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-6.343172913755176e+24</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-1.257496634313666e+27</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-2.236556304683361e+29</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-3.605137272668761e+31</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>-5.364061950609922e+33</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-7.663200867879358e+35</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-1.098090681405393e+38</v>
       </c>
     </row>
     <row r="37">
@@ -726,7 +2562,58 @@
         <v>0.05784083406433961</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.02781341723712331</v>
+        <v>4.013887447595116</v>
+      </c>
+      <c r="C37" t="n">
+        <v>667.9941068325898</v>
+      </c>
+      <c r="D37" t="n">
+        <v>82528.48948649329</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10389334.56819225</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1332003550.742151</v>
+      </c>
+      <c r="G37" t="n">
+        <v>167994099246.8492</v>
+      </c>
+      <c r="H37" t="n">
+        <v>15145111334597.27</v>
+      </c>
+      <c r="I37" t="n">
+        <v>812970531921017.8</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-4.006838589541725e+16</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-2.055348916686656e+19</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-4.0649408343121e+21</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-6.293040084671637e+23</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-8.799167204140751e+25</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-1.164934170206809e+28</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-1.449318709078454e+30</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-1.7059246543776e+32</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-1.951354618787576e+34</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-2.237854308183106e+36</v>
       </c>
     </row>
     <row r="38">
@@ -734,7 +2621,58 @@
         <v>0.3390131524289273</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2830760980638577</v>
+        <v>56.70452273341211</v>
+      </c>
+      <c r="C38" t="n">
+        <v>10812.84693681779</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1830774.166648763</v>
+      </c>
+      <c r="E38" t="n">
+        <v>295708077.9117864</v>
+      </c>
+      <c r="F38" t="n">
+        <v>44548439218.42108</v>
+      </c>
+      <c r="G38" t="n">
+        <v>6156683616046.269</v>
+      </c>
+      <c r="H38" t="n">
+        <v>853280548165897.4</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.265294541991447e+17</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.851166528665941e+19</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.615659800783212e+21</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3.543446088171072e+23</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4.5534355151604e+25</v>
+      </c>
+      <c r="N38" t="n">
+        <v>5.444184306593993e+27</v>
+      </c>
+      <c r="O38" t="n">
+        <v>6.159792417370247e+29</v>
+      </c>
+      <c r="P38" t="n">
+        <v>7.30951171423639e+31</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.05126233989048e+34</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.77008603908483e+36</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.961363213214973e+38</v>
       </c>
     </row>
     <row r="39">
@@ -742,7 +2680,58 @@
         <v>-0.07494543898053001</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.1531292119110962</v>
+        <v>-23.10289748360921</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-6225.544934003068</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-1875079.01960641</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-561638818.5995162</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-165190350360.934</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-47839195771906.77</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-1.364413785139002e+16</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-3.828338143606013e+18</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1.047053808069455e+21</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-2.776263428184084e+23</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-7.166453312815126e+25</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-1.815065869095355e+28</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-4.551557549026716e+30</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-1.134243676047555e+33</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-2.812119992438517e+35</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>-6.951438242562633e+37</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-1.717330034126224e+40</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-4.246237959671275e+42</v>
       </c>
     </row>
     <row r="40">
@@ -750,7 +2739,58 @@
         <v>0.143608073768983</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1192788593122581</v>
+        <v>26.3942315290639</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4004.269404486945</v>
+      </c>
+      <c r="D40" t="n">
+        <v>411754.8686688606</v>
+      </c>
+      <c r="E40" t="n">
+        <v>47437455.93303669</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5479315876.707797</v>
+      </c>
+      <c r="G40" t="n">
+        <v>603674846574.1072</v>
+      </c>
+      <c r="H40" t="n">
+        <v>48356583483180.63</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2486857855798600</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-2.204904684987128e+17</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-1.073486496734487e+20</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-2.340983928273233e+22</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-3.991400061435251e+24</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-6.183487166498499e+26</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-9.246611299112646e+28</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-1.320883194688112e+31</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-1.807393852435568e+33</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-2.41893767372693e+35</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-3.244437181865744e+37</v>
       </c>
     </row>
     <row r="41">
@@ -758,7 +2798,58 @@
         <v>-0.08858301808009007</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.09097986344485864</v>
+        <v>-5.913054303489423</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-126.7255321883613</v>
+      </c>
+      <c r="D41" t="n">
+        <v>141719.0789683558</v>
+      </c>
+      <c r="E41" t="n">
+        <v>53343312.64277749</v>
+      </c>
+      <c r="F41" t="n">
+        <v>13422353978.00667</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2857823359868.555</v>
+      </c>
+      <c r="H41" t="n">
+        <v>520561911856025.4</v>
+      </c>
+      <c r="I41" t="n">
+        <v>7.733127539326694e+16</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.022446103627472e+19</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.252686291415246e+21</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.335650776902897e+23</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.076807514443235e+25</v>
+      </c>
+      <c r="N41" t="n">
+        <v>4.588551688329412e+25</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-2.426413741120016e+29</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-6.601422359983852e+31</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-1.211036908221585e+34</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-1.895580284152933e+36</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-2.972833536555723e+38</v>
       </c>
     </row>
     <row r="42">
@@ -766,7 +2857,58 @@
         <v>0.2432095778084683</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2135249573035481</v>
+        <v>27.91834045383958</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3369.901754589683</v>
+      </c>
+      <c r="D42" t="n">
+        <v>412794.5400601133</v>
+      </c>
+      <c r="E42" t="n">
+        <v>47103000.64234971</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4996073045.385895</v>
+      </c>
+      <c r="G42" t="n">
+        <v>475674502226.8536</v>
+      </c>
+      <c r="H42" t="n">
+        <v>42750055237710.35</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4156328303792195</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.220663683991677e+17</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4.08466123670678e+19</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3.50074507940702e+21</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2.217530405534124e+23</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.72674244506552e+24</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-1.942864824633197e+27</v>
+      </c>
+      <c r="P42" t="n">
+        <v>-3.843759836651719e+29</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>-4.943679361505688e+31</v>
+      </c>
+      <c r="R42" t="n">
+        <v>-5.383785411005387e+33</v>
+      </c>
+      <c r="S42" t="n">
+        <v>-5.886764996568004e+35</v>
       </c>
     </row>
     <row r="43">
@@ -774,7 +2916,58 @@
         <v>0.1950877439158334</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1589057977283416</v>
+        <v>42.81838212899547</v>
+      </c>
+      <c r="C43" t="n">
+        <v>9190.128820385593</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2037070.881931844</v>
+      </c>
+      <c r="E43" t="n">
+        <v>446950786.8974563</v>
+      </c>
+      <c r="F43" t="n">
+        <v>96715295292.34406</v>
+      </c>
+      <c r="G43" t="n">
+        <v>20393731609247.34</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4043763545554414</v>
+      </c>
+      <c r="I43" t="n">
+        <v>7.685274231883439e+17</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.407514077120369e+20</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.45245767007086e+22</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3.932831863341382e+24</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5.438050287691594e+26</v>
+      </c>
+      <c r="N43" t="n">
+        <v>5.547470771675152e+28</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.610453910644052e+30</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-9.086542579279401e+32</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-2.636443287643939e+35</v>
+      </c>
+      <c r="R43" t="n">
+        <v>-4.903691881276514e+37</v>
+      </c>
+      <c r="S43" t="n">
+        <v>-9.236518132362547e+39</v>
       </c>
     </row>
     <row r="44">
@@ -782,7 +2975,58 @@
         <v>-0.1386979563161148</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.1264751840052568</v>
+        <v>-25.00402566381949</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-4860.154736934586</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-984221.8196427476</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-197344755.7332495</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-38948569538.44257</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-7490280347298.49</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-1509395708660612</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-2.922995567627108e+17</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-5.498373698663968e+19</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-1.038658820497739e+22</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-2.066414991391087e+24</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-4.361704455609889e+26</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-9.199745906584081e+28</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-1.90831864603183e+31</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-3.851086844148534e+33</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>-7.552147637964806e+35</v>
+      </c>
+      <c r="R44" t="n">
+        <v>-1.460531800168865e+38</v>
+      </c>
+      <c r="S44" t="n">
+        <v>-2.830675191397966e+40</v>
       </c>
     </row>
     <row r="45">
@@ -790,7 +3034,58 @@
         <v>-0.09664984838546742</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.08678370139580865</v>
+        <v>-3.215784565341075</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-640.4807332818817</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-67454.77582928156</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-8411858.722967124</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-1045652789.728194</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-132109468752.1971</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-20014301879308.42</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-2894136557177371</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-3.82978328975436e+17</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-4.901011166090194e+19</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-6.199221428229068e+21</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-7.806542196579274e+23</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-9.673381616824809e+25</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-1.170641862408222e+28</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-1.371090075125005e+30</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-1.555941830006589e+32</v>
+      </c>
+      <c r="R45" t="n">
+        <v>-1.737127999669179e+34</v>
+      </c>
+      <c r="S45" t="n">
+        <v>-1.943384863704407e+36</v>
       </c>
     </row>
     <row r="46">
@@ -798,7 +3093,58 @@
         <v>-0.1909639682916044</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.1841821144824458</v>
+        <v>-5.196725738796598</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-176.8198735857095</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-5536.617423105849</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-190967.8303165826</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-6718183.180089926</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-234113386.7320867</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-6586395608.592526</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-157646469731.3708</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-2689821031640.454</v>
+      </c>
+      <c r="K46" t="n">
+        <v>569975476669.8125</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2521879004524790</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.360090834559293e+17</v>
+      </c>
+      <c r="N46" t="n">
+        <v>5.663241042874822e+18</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2.247660773086435e+20</v>
+      </c>
+      <c r="P46" t="n">
+        <v>8.514239782103009e+21</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3.108638276942402e+23</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.115732723546755e+25</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3.996815686200944e+26</v>
       </c>
     </row>
     <row r="47">
@@ -806,7 +3152,58 @@
         <v>-0.1889263992401033</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.1838654952451159</v>
+        <v>-6.644583689328744</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-273.2243817873418</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-10385.63709296139</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-432895.1625578965</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-18416605.70576318</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-778024328.7698332</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-27037881359.36465</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-817639380506.4886</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-19329381853245.61</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-206758582040969.2</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.049449521663543e+16</v>
+      </c>
+      <c r="M47" t="n">
+        <v>8.773873774009998e+17</v>
+      </c>
+      <c r="N47" t="n">
+        <v>4.668738858747774e+19</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2.309978299544024e+21</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.07318838332344e+23</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4.756863699914088e+24</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2.063833736540828e+26</v>
+      </c>
+      <c r="S47" t="n">
+        <v>8.932173764149035e+27</v>
       </c>
     </row>
     <row r="48">
@@ -814,7 +3211,58 @@
         <v>-0.2258465568638412</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.202416989260823</v>
+        <v>-6.833490913134727</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-276.8872799777949</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-10286.47289722503</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-416822.9361976689</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-17148632.82375051</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-699842918.3417634</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-23978467010.42947</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-732265005729.6506</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-18349451141838.43</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-290622747753687.6</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2444213548295920</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4.220339171168489e+17</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2.445682562588282e+19</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.252511558960567e+21</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5.867261679283467e+22</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.585140960289925e+24</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.10823830564986e+26</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4.730993856871037e+27</v>
       </c>
     </row>
     <row r="49">
@@ -822,7 +3270,58 @@
         <v>-0.2210150296816591</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.2054858845883491</v>
+        <v>-8.866165300613913</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-431.0822551756845</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-19490.87220082628</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-954930.3936838093</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-47302365.34785909</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-2321644536.454107</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-97309800331.35567</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-3689926315955.356</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-118853979873286.2</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-2839412141471562</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-2.617110456221302e+16</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.811037448244685e+18</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.734945048043874e+20</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.210460577321774e+22</v>
+      </c>
+      <c r="P49" t="n">
+        <v>7.223419594633671e+23</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3.932773964934863e+25</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2.059682582601897e+27</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.072318676285835e+29</v>
       </c>
     </row>
     <row r="50">
@@ -830,7 +3329,58 @@
         <v>-0.1560748696515911</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.1476729823843906</v>
+        <v>-13.77653629239497</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-1221.03588949994</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-97429.22164059294</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-8003352.740220402</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-663160917.5866075</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-54513398809.95342</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-3869793042731.409</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-250211343788265.8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-1.437098632257093e+16</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-7.039558636136431e+17</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-2.870834982460485e+19</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-1.061973002989398e+21</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-2.965429831274283e+22</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.396994418924457e+24</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3.210843769178796e+26</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3.482362556283681e+28</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3.207862497436217e+30</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2.900343464632186e+32</v>
       </c>
     </row>
     <row r="51">
@@ -838,7 +3388,58 @@
         <v>-0.2108860185844686</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.2235325144355253</v>
+        <v>-8.36808914314636</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-382.0532592317225</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-16107.2844625204</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-740584.4943954165</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-34430531.7605267</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-1585196361.109985</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-62326457420.14999</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-2219844937190.98</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-66701748477793.72</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-1441309508425674</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-7535860306215136</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.205011414012177e+18</v>
+      </c>
+      <c r="N51" t="n">
+        <v>9.70207638648369e+19</v>
+      </c>
+      <c r="O51" t="n">
+        <v>6.161870886659647e+21</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3.432160682704494e+23</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.764232827019022e+25</v>
+      </c>
+      <c r="R51" t="n">
+        <v>8.754478574730536e+26</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4.313678766571506e+28</v>
       </c>
     </row>
     <row r="52">
@@ -846,7 +3447,58 @@
         <v>-0.2108860185844686</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.2235325144355253</v>
+        <v>-8.36808914314636</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-382.0532592317225</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-16107.2844625204</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-740584.4943954165</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-34430531.7605267</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-1585196361.109985</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-62326457420.14999</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-2219844937190.98</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-66701748477793.72</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-1441309508425674</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-7535860306215136</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.205011414012177e+18</v>
+      </c>
+      <c r="N52" t="n">
+        <v>9.70207638648369e+19</v>
+      </c>
+      <c r="O52" t="n">
+        <v>6.161870886659647e+21</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3.432160682704494e+23</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.764232827019022e+25</v>
+      </c>
+      <c r="R52" t="n">
+        <v>8.754478574730536e+26</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4.313678766571506e+28</v>
       </c>
     </row>
     <row r="53">
@@ -854,7 +3506,58 @@
         <v>-0.2005197532415103</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.1815900061744462</v>
+        <v>-4.691304952021159</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-162.9330211827978</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-4959.351427838153</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-166781.3201538501</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-5764319.757639105</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-198496308.5117769</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-5507191103.171281</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-130738362357.493</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-2285668825191.116</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-6956492546526.812</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1578599148008719</v>
+      </c>
+      <c r="M53" t="n">
+        <v>8.677085833863912e+16</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3.539007646660072e+18</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.374497059568265e+20</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5.090527434483098e+21</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1.815779514990796e+23</v>
+      </c>
+      <c r="R53" t="n">
+        <v>6.365210645010783e+24</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2.226307975727456e+26</v>
       </c>
     </row>
     <row r="54">
@@ -862,7 +3565,58 @@
         <v>-0.2031879920793391</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1978903840412476</v>
+        <v>-13.64896578971224</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-973.938020923778</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-61837.04696156894</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-4193087.038507027</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-285966439.7767574</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-19315136864.9854</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-1147666039858.917</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-63482628170330.34</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-3135336556117015</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-1.333637289265033e+17</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-4.807868579037256e+18</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-1.596798474840413e+20</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-4.256987479926607e+21</v>
+      </c>
+      <c r="O54" t="n">
+        <v>9.535653358442657e+22</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2.502850131610652e+25</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2.428156736030305e+27</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.958680194687015e+29</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1.535187070273889e+31</v>
       </c>
     </row>
     <row r="55">
@@ -870,7 +3624,58 @@
         <v>-0.1714539397845141</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.1535962099403553</v>
+        <v>-4.804555734858472</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-193.9096708028416</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-7121.396202949817</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-285820.4557018654</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-11712511.46263616</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-476496942.7733598</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-15631520311.36128</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-438718536984.2189</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-9253173774585.49</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-58551258651003.62</v>
+      </c>
+      <c r="L55" t="n">
+        <v>6869070776450684</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4.682243794698463e+17</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2.261740082598359e+19</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.031185055099828e+21</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4.454898538583608e+22</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.845935548965654e+24</v>
+      </c>
+      <c r="R55" t="n">
+        <v>7.504359663809137e+25</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3.044228521332901e+27</v>
       </c>
     </row>
     <row r="56">
@@ -878,7 +3683,58 @@
         <v>-0.1576589899662995</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.1597178036589982</v>
+        <v>-7.846186825793092</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-397.2450569662109</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-18433.11913752797</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-896309.2655180873</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-43591834.38512643</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-2085358345.345935</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-84819859226.18527</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-3082657325389.697</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-92292027209680.17</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-1795535584849998</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.297606778983715e+16</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3.404851907884833e+18</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.435335231242094e+20</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.50001845345427e+22</v>
+      </c>
+      <c r="P56" t="n">
+        <v>8.348242459908033e+23</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4.341930756949779e+25</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2.191867568971335e+27</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1.103187059735581e+29</v>
       </c>
     </row>
     <row r="57">
@@ -886,7 +3742,58 @@
         <v>-0.2042248442595974</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.168746685201611</v>
+        <v>-7.25910612942122</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-301.7844174880925</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-11574.13832662096</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-476127.2945914249</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-19700152.63962253</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-799901550.5913957</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-26791658472.99149</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-782245276900.6598</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-17484723653551.8</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-120944506716332.1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.466014064133735e+16</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.093373752510539e+18</v>
+      </c>
+      <c r="N57" t="n">
+        <v>5.75070424656359e+19</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2.805421486426038e+21</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.280293475713707e+23</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5.555344932520654e+24</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2.357143462122713e+26</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1.000436557766283e+28</v>
       </c>
     </row>
     <row r="58">
@@ -894,7 +3801,58 @@
         <v>-0.1778661348900057</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.2090549265717036</v>
+        <v>-8.832265459800659</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-412.4059779505546</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-17382.62180510153</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-746166.3225714713</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-31714584.06593447</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1312974619.531229</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-46826499151.55368</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-1522139397929.533</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-41600691455544.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-749977678133977.5</v>
+      </c>
+      <c r="L58" t="n">
+        <v>5131654017579104</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.309097219321567e+18</v>
+      </c>
+      <c r="N58" t="n">
+        <v>8.941986612090556e+19</v>
+      </c>
+      <c r="O58" t="n">
+        <v>5.055700202213915e+21</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2.535177281016629e+23</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.17541405755547e+25</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5.267463938513792e+26</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2.360226712502581e+28</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +3860,58 @@
         <v>-0.2148054960014503</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.2226689262470279</v>
+        <v>-9.310895138648599</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-467.9530365483939</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-21003.82218503668</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-979515.8205183288</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-45409896.58703414</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-2063538078.181821</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-82134861382.87929</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-3034417529584.749</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-97740128691003</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-2481284256510388</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-3.552091525927709e+16</v>
+      </c>
+      <c r="M59" t="n">
+        <v>7.86876589750313e+17</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.138843010936295e+20</v>
+      </c>
+      <c r="O59" t="n">
+        <v>8.395674010628075e+21</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4.932852736087738e+23</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.572847792867702e+25</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.278429009021353e+27</v>
+      </c>
+      <c r="S59" t="n">
+        <v>6.331131266470302e+28</v>
       </c>
     </row>
     <row r="60">
@@ -910,7 +3919,58 @@
         <v>-0.2057805845484927</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.2232261971984989</v>
+        <v>-14.50319990020623</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-1062.447062198061</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-69449.81146361225</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-4677583.797084902</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-309793719.8429771</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-19993628394.20409</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-1161310016577.726</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-64258786040192.39</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-3186296277864674</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-1.349802572550912e+17</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-4.47075370843821e+18</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-8.188166446505892e+19</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5.116947264886006e+21</v>
+      </c>
+      <c r="O60" t="n">
+        <v>9.477396613363649e+23</v>
+      </c>
+      <c r="P60" t="n">
+        <v>9.118695497601348e+25</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>7.066397828614599e+27</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5.065031331644384e+29</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3.62469706997699e+31</v>
       </c>
     </row>
     <row r="61">
@@ -918,7 +3978,58 @@
         <v>-0.248522645007653</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.200998863406402</v>
+        <v>-39.86467866916215</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-9688.904185113437</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-2046105.747630135</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-418406455.5606827</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-84771433107.77568</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-16918426854882.45</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-3011010552004082</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-5.058442474851631e+17</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-7.812032978623262e+19</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-1.096877252999385e+22</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-1.450452381536241e+24</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-2.02341129403344e+26</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-3.007039598054971e+28</v>
+      </c>
+      <c r="O61" t="n">
+        <v>-4.261890209780572e+30</v>
+      </c>
+      <c r="P61" t="n">
+        <v>-6.209307751092014e+32</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>-1.027917883458448e+35</v>
+      </c>
+      <c r="R61" t="n">
+        <v>-1.883509724111439e+37</v>
+      </c>
+      <c r="S61" t="n">
+        <v>-3.419923840418179e+39</v>
       </c>
     </row>
     <row r="62">
@@ -926,7 +4037,58 @@
         <v>-0.1585966567466023</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.09287336873661013</v>
+        <v>-2.344509598668091</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-100.5578515086326</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-3444.021290624235</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-125489.04741174</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-4637165.950979337</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-168798980.2742054</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-4685172058.700946</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-102861435406.6982</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1216106622603.081</v>
+      </c>
+      <c r="K62" t="n">
+        <v>35063495606051.47</v>
+      </c>
+      <c r="L62" t="n">
+        <v>3266309556993938</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.540484979417238e+17</v>
+      </c>
+      <c r="N62" t="n">
+        <v>6.132469618870204e+18</v>
+      </c>
+      <c r="O62" t="n">
+        <v>2.339953782174438e+20</v>
+      </c>
+      <c r="P62" t="n">
+        <v>8.539763020540454e+21</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3.005272996318843e+23</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.040460923676893e+25</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3.604352926951539e+26</v>
       </c>
     </row>
     <row r="63">
@@ -934,7 +4096,58 @@
         <v>-0.3427260686486877</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.380050846412912</v>
+        <v>-16.02566703197306</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-784.3320133057723</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-38891.88352551311</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-2067372.615133597</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-107396810.2844387</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-5379870459.960316</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-252071053779.8156</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-11819312019388.64</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-521612206639817</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-2.111404045151594e+16</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-7.813996124408852e+17</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-2.670697186986145e+19</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-7.632913172968988e+20</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-8.80254731088704e+21</v>
+      </c>
+      <c r="P63" t="n">
+        <v>8.238573784716556e+23</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>8.837494477649293e+25</v>
+      </c>
+      <c r="R63" t="n">
+        <v>6.377875509922871e+27</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4.31622230906245e+29</v>
       </c>
     </row>
     <row r="64">
@@ -942,7 +4155,58 @@
         <v>-0.2619670185581776</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.2460918741514019</v>
+        <v>-7.921331662809431</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-305.0396090791259</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-10978.64268071941</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-440015.2743325732</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-17980025.66810419</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-728572582.9596303</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-24818978588.63336</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-760199075929.9542</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-19474226851874.05</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-327416169157779.2</v>
+      </c>
+      <c r="L64" t="n">
+        <v>2037248953789200</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4.792899569670097e+17</v>
+      </c>
+      <c r="N64" t="n">
+        <v>2.994155040393756e+19</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.574770702634864e+21</v>
+      </c>
+      <c r="P64" t="n">
+        <v>7.395642402188137e+22</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3.221991560720423e+24</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.358897421870778e+26</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5.725535101442897e+27</v>
       </c>
     </row>
     <row r="65">
@@ -950,7 +4214,58 @@
         <v>-0.1909027725969231</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.2223802753770208</v>
+        <v>-20.4194261075456</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-1822.775522080581</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-141416.2969014318</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-11374343.21874368</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-893379526.9151399</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-68108401343.57655</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-4841083045166.97</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-336123200539325.4</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-2.126145013611905e+16</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-1.21061047034101e+18</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-6.18393584182755e+19</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-2.916865549084468e+21</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-1.121597057749522e+23</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-5.582443847224266e+23</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4.178175098470555e+26</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5.196115073971574e+28</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4.854862364359353e+30</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4.482851499021242e+32</v>
       </c>
     </row>
     <row r="66">
@@ -958,7 +4273,58 @@
         <v>-0.1241820406382222</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.1042468777245117</v>
+        <v>-5.488914863557852</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-313.8307824808616</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-16443.32378162936</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-852610.347264258</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-43673817.21369238</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-2183769421.176089</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-91441553371.47388</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-3392949210884.711</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-104277312404939.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-2078603846028708</v>
+      </c>
+      <c r="L66" t="n">
+        <v>2.199272426667306e+16</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5.179224815908964e+18</v>
+      </c>
+      <c r="N66" t="n">
+        <v>3.920613018265452e+20</v>
+      </c>
+      <c r="O66" t="n">
+        <v>2.478538545275578e+22</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.391869860133574e+24</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>7.222809515619101e+25</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3.622609431451928e+27</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1.818351791439448e+29</v>
       </c>
     </row>
     <row r="67">
@@ -966,7 +4332,58 @@
         <v>-0.0783207882353454</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.09373137367300126</v>
+        <v>-7.769283523224365</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-431.5843035725978</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-20842.00999994714</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-987955.8726869536</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-45563472.78289728</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-2027049757.758725</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-79411804492.16017</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-2831862786796.511</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-85386819329738.38</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-1846514522700028</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-4713765298935520</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2.30021755696384e+18</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1.89186267533479e+20</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.194939487653157e+22</v>
+      </c>
+      <c r="P67" t="n">
+        <v>6.516837051316757e+23</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3.243511273758228e+25</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1.552369255842693e+27</v>
+      </c>
+      <c r="S67" t="n">
+        <v>7.436591193002184e+28</v>
       </c>
     </row>
   </sheetData>
